--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\training-reactjs\demo\reactjs-typescript-reduxtoolkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -380,7 +380,7 @@
     <definedName name="IO">[7]Config!$D$2:$D$4</definedName>
     <definedName name="Kassei">#REF!</definedName>
     <definedName name="mau" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$348</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$282</definedName>
     <definedName name="Ｑ" hidden="1">[8]GBND565!#REF!</definedName>
     <definedName name="ＱＱＱＱＱ" hidden="1">#REF!</definedName>
     <definedName name="range_Alignment">#REF!</definedName>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>https://www.red-gate.com/simple-talk/development/dotnet-development/creating-ccli-wrapper/</t>
   </si>
@@ -534,9 +534,6 @@
     <t>+ apt install yarn -y</t>
   </si>
   <si>
-    <t>+  apt Install curl -y</t>
-  </si>
-  <si>
     <t>+ echo "deb https://dl.yarnpkg.com/debian/ stable main" |</t>
   </si>
   <si>
@@ -588,34 +585,16 @@
     <t>2. Install golang v1.19</t>
   </si>
   <si>
-    <t>- Download the Go language</t>
-  </si>
-  <si>
-    <t>+ wget  https://go.dev/dl/go1.19.linux-amd64.tar.gz</t>
-  </si>
-  <si>
-    <t>- Extract the downloaded</t>
-  </si>
-  <si>
-    <t>+ tar -xvf go1.19.linux-amd64.tar.gz</t>
-  </si>
-  <si>
-    <t>+ mv go /usr/local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Setup environment </t>
-  </si>
-  <si>
-    <t>+ sh -c 'echo "export PATH=$PATH:/usr/local/go/bin" &gt;&gt; /etc/profile'</t>
-  </si>
-  <si>
-    <t>6. Reboot computer</t>
-  </si>
-  <si>
     <t>4. Run all shell file in folder : scripts</t>
   </si>
   <si>
     <t>Command : chmod 755 ./scripts/*.sh setup.sh</t>
+  </si>
+  <si>
+    <t>+  apt install curl -y</t>
+  </si>
+  <si>
+    <t>Command : sudo snap install go --channel=1.19/stable --classic</t>
   </si>
 </sst>
 </file>
@@ -735,13 +714,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>94552</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -773,13 +752,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>113600</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>180500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -811,13 +790,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>85029</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>161452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -849,13 +828,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>104076</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>151929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -887,13 +866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>252</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1039,13 +1018,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>123124</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>170976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1077,165 +1056,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>104309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="13716000"/>
-          <a:ext cx="5542857" cy="3723809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85029</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>142405</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="18097500"/>
-          <a:ext cx="5571429" cy="3761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>104309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="21907500"/>
-          <a:ext cx="5542857" cy="3723809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>75505</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>142405</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="26479500"/>
-          <a:ext cx="5561905" cy="3761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1246,7 +1073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1267,13 +1094,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>8819</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>190024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1284,7 +1111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1293,6 +1120,44 @@
         <a:xfrm>
           <a:off x="152400" y="62103000"/>
           <a:ext cx="5647619" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>85029</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>170952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="13525500"/>
+          <a:ext cx="5571429" cy="3980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4204,10 +4069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D347"/>
+  <dimension ref="A2:D281"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A334" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="F354" sqref="F354"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A224" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="V235" sqref="V235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,7 +4098,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,564 +4183,355 @@
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="7" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="7"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>42</v>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="7" t="s">
+    <row r="232" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="7" t="s">
-        <v>44</v>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="7"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="7"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="7"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D112" s="7"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="7"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="7"/>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="7"/>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="7"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="7"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="7"/>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="7"/>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="7"/>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D125" s="7"/>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="7"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="7"/>
-      <c r="D137" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="7"/>
-      <c r="D160" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-    </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C182" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="7"/>
-    </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="7"/>
-    </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="7"/>
-    </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D188" s="7"/>
-    </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="7"/>
-    </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="7"/>
-    </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="7"/>
-    </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="7"/>
-    </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="7"/>
-    </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="7"/>
-    </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="7"/>
-    </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D196" s="7"/>
-    </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="7"/>
-    </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="7"/>
-    </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D199" s="7"/>
-    </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D200" s="7"/>
-    </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D201" s="7"/>
-    </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D202" s="7"/>
-    </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D203" s="7"/>
-    </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D204" s="7"/>
-    </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D205" s="7"/>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C206" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D207" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D208" s="7"/>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D209" s="7"/>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D210" s="7"/>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D211" s="7"/>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D212" s="7"/>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D213" s="7"/>
-    </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D214" s="7"/>
-    </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D215" s="7"/>
-    </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D216" s="7"/>
-    </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D217" s="7"/>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D218" s="7"/>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D219" s="7"/>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D220" s="7"/>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D221" s="7"/>
-    </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D222" s="7"/>
-    </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D223" s="7"/>
-    </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D224" s="7"/>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="7"/>
-    </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D226" s="7"/>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D227" s="7"/>
-    </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C228" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D229" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C252" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C275" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C302" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C303" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C326" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
-        <v>51</v>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -380,7 +380,7 @@
     <definedName name="IO">[7]Config!$D$2:$D$4</definedName>
     <definedName name="Kassei">#REF!</definedName>
     <definedName name="mau" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$282</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$413</definedName>
     <definedName name="Ｑ" hidden="1">[8]GBND565!#REF!</definedName>
     <definedName name="ＱＱＱＱＱ" hidden="1">#REF!</definedName>
     <definedName name="range_Alignment">#REF!</definedName>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>https://www.red-gate.com/simple-talk/development/dotnet-development/creating-ccli-wrapper/</t>
   </si>
@@ -595,6 +595,54 @@
   </si>
   <si>
     <t>Command : sudo snap install go --channel=1.19/stable --classic</t>
+  </si>
+  <si>
+    <t>Command : sh -c 'export NVRPATH="$(cd "$(dirname -- "$1")" &gt;/dev/null; pwd -P)/$(basename -- "$1")" &gt;&gt; /etc/profile'</t>
+  </si>
+  <si>
+    <t>5. Copy service file</t>
+  </si>
+  <si>
+    <t>Command: cp -a ./services/. /lib/systemd/system/</t>
+  </si>
+  <si>
+    <t>6. Reboot cmputer</t>
+  </si>
+  <si>
+    <t>7. Reload daemon</t>
+  </si>
+  <si>
+    <t>Command: systemctl daemon-reload</t>
+  </si>
+  <si>
+    <t>8. Enable service</t>
+  </si>
+  <si>
+    <t>+ systemctl enable be-go.service</t>
+  </si>
+  <si>
+    <t>+ systemctl enable be-python.service</t>
+  </si>
+  <si>
+    <t>+ systemctl enable fe-reactjs.service</t>
+  </si>
+  <si>
+    <t>9. Start service</t>
+  </si>
+  <si>
+    <t>+ systemctl start be-go.service</t>
+  </si>
+  <si>
+    <t>+ systemctl start be-python.service</t>
+  </si>
+  <si>
+    <t>+ systemctl start fe-reactjs.service</t>
+  </si>
+  <si>
+    <t>6. Copy shell scripts file</t>
+  </si>
+  <si>
+    <t>Command: cp -a ./scripts/. /usr/bin/</t>
   </si>
 </sst>
 </file>
@@ -1166,6 +1214,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>75505</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="53721000"/>
+          <a:ext cx="5561905" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>37409</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>113833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="57912000"/>
+          <a:ext cx="5523809" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>65981</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>132881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="62484000"/>
+          <a:ext cx="5552381" cy="3752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>65981</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="67246500"/>
+          <a:ext cx="5552381" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4069,10 +4269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D281"/>
+  <dimension ref="A2:D410"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A224" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="V235" sqref="V235"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A310" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="T325" sqref="T325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4529,9 +4729,89 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C408" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C409" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C410" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\training-reactjs\demo\reactjs-typescript-reduxtoolkit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -380,7 +380,7 @@
     <definedName name="IO">[7]Config!$D$2:$D$4</definedName>
     <definedName name="Kassei">#REF!</definedName>
     <definedName name="mau" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$413</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$348</definedName>
     <definedName name="Ｑ" hidden="1">[8]GBND565!#REF!</definedName>
     <definedName name="ＱＱＱＱＱ" hidden="1">#REF!</definedName>
     <definedName name="range_Alignment">#REF!</definedName>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>https://www.red-gate.com/simple-talk/development/dotnet-development/creating-ccli-wrapper/</t>
   </si>
@@ -534,6 +534,9 @@
     <t>+ apt install yarn -y</t>
   </si>
   <si>
+    <t>+  apt Install curl -y</t>
+  </si>
+  <si>
     <t>+ echo "deb https://dl.yarnpkg.com/debian/ stable main" |</t>
   </si>
   <si>
@@ -585,64 +588,34 @@
     <t>2. Install golang v1.19</t>
   </si>
   <si>
+    <t>- Download the Go language</t>
+  </si>
+  <si>
+    <t>+ wget  https://go.dev/dl/go1.19.linux-amd64.tar.gz</t>
+  </si>
+  <si>
+    <t>- Extract the downloaded</t>
+  </si>
+  <si>
+    <t>+ tar -xvf go1.19.linux-amd64.tar.gz</t>
+  </si>
+  <si>
+    <t>+ mv go /usr/local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Setup environment </t>
+  </si>
+  <si>
+    <t>+ sh -c 'echo "export PATH=$PATH:/usr/local/go/bin" &gt;&gt; /etc/profile'</t>
+  </si>
+  <si>
+    <t>6. Reboot computer</t>
+  </si>
+  <si>
     <t>4. Run all shell file in folder : scripts</t>
   </si>
   <si>
     <t>Command : chmod 755 ./scripts/*.sh setup.sh</t>
-  </si>
-  <si>
-    <t>+  apt install curl -y</t>
-  </si>
-  <si>
-    <t>Command : sudo snap install go --channel=1.19/stable --classic</t>
-  </si>
-  <si>
-    <t>Command : sh -c 'export NVRPATH="$(cd "$(dirname -- "$1")" &gt;/dev/null; pwd -P)/$(basename -- "$1")" &gt;&gt; /etc/profile'</t>
-  </si>
-  <si>
-    <t>5. Copy service file</t>
-  </si>
-  <si>
-    <t>Command: cp -a ./services/. /lib/systemd/system/</t>
-  </si>
-  <si>
-    <t>6. Reboot cmputer</t>
-  </si>
-  <si>
-    <t>7. Reload daemon</t>
-  </si>
-  <si>
-    <t>Command: systemctl daemon-reload</t>
-  </si>
-  <si>
-    <t>8. Enable service</t>
-  </si>
-  <si>
-    <t>+ systemctl enable be-go.service</t>
-  </si>
-  <si>
-    <t>+ systemctl enable be-python.service</t>
-  </si>
-  <si>
-    <t>+ systemctl enable fe-reactjs.service</t>
-  </si>
-  <si>
-    <t>9. Start service</t>
-  </si>
-  <si>
-    <t>+ systemctl start be-go.service</t>
-  </si>
-  <si>
-    <t>+ systemctl start be-python.service</t>
-  </si>
-  <si>
-    <t>+ systemctl start fe-reactjs.service</t>
-  </si>
-  <si>
-    <t>6. Copy shell scripts file</t>
-  </si>
-  <si>
-    <t>Command: cp -a ./scripts/. /usr/bin/</t>
   </si>
 </sst>
 </file>
@@ -762,13 +735,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>94552</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -800,13 +773,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>113600</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>180500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -838,13 +811,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>85029</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>161452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -876,13 +849,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>104076</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>151929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -914,13 +887,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1066,13 +1039,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>123124</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>170976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1104,13 +1077,165 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>104309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="13716000"/>
+          <a:ext cx="5542857" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>85029</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="18097500"/>
+          <a:ext cx="5571429" cy="3761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>56457</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>104309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="21907500"/>
+          <a:ext cx="5542857" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>75505</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="26479500"/>
+          <a:ext cx="5561905" cy="3761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>56457</xdr:colOff>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1121,7 +1246,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1142,170 +1267,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>8819</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>190024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="63" name="Picture 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="62103000"/>
-          <a:ext cx="5647619" cy="3809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85029</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>170952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="13525500"/>
-          <a:ext cx="5571429" cy="3980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>75505</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>123357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="53721000"/>
-          <a:ext cx="5561905" cy="3742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>304</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>37409</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>113833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="57912000"/>
-          <a:ext cx="5523809" cy="3733333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>360</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>65981</xdr:colOff>
-      <xdr:row>379</xdr:row>
-      <xdr:rowOff>132881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1318,46 +1291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="62484000"/>
-          <a:ext cx="5552381" cy="3752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>385</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>65981</xdr:colOff>
-      <xdr:row>404</xdr:row>
-      <xdr:rowOff>123357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="67246500"/>
-          <a:ext cx="5552381" cy="3742857"/>
+          <a:off x="152400" y="62103000"/>
+          <a:ext cx="5647619" cy="3809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4269,10 +4204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D410"/>
+  <dimension ref="A2:D347"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A310" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="T325" sqref="T325"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A334" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,7 +4233,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,435 +4318,564 @@
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="7"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="7"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="7"/>
+      <c r="D137" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="7" t="s">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="7"/>
-      <c r="D95" s="7" t="s">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="7" t="s">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="7" t="s">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="7"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="7"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="7"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D125" s="7"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="7"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="7"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="7"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="7"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="7"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="7"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="7"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="7"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="7"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="7"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="7"/>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="7" t="s">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="7" t="s">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="7"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="7"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="7"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="7"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="7"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="7"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="7"/>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="7"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="7"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="7"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="7"/>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="7"/>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="7"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="7"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="7"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="7"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="7"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="7"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="7"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="7"/>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="7" t="s">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="7"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="7"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="7"/>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="7" t="s">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C282" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C304" t="s">
-        <v>48</v>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C326" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B359" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C360" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B382" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B407" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\training-reactjs\demo\reactjs-typescript-reduxtoolkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -380,7 +380,7 @@
     <definedName name="IO">[7]Config!$D$2:$D$4</definedName>
     <definedName name="Kassei">#REF!</definedName>
     <definedName name="mau" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$348</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$353</definedName>
     <definedName name="Ｑ" hidden="1">[8]GBND565!#REF!</definedName>
     <definedName name="ＱＱＱＱＱ" hidden="1">#REF!</definedName>
     <definedName name="range_Alignment">#REF!</definedName>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>https://www.red-gate.com/simple-talk/development/dotnet-development/creating-ccli-wrapper/</t>
   </si>
@@ -612,10 +612,22 @@
     <t>6. Reboot computer</t>
   </si>
   <si>
-    <t>4. Run all shell file in folder : scripts</t>
-  </si>
-  <si>
     <t>Command : chmod 755 ./scripts/*.sh setup.sh</t>
+  </si>
+  <si>
+    <t>Command: git clone https://github.com/thangtran97/reactjs-typescript-reduxtoolkit.git</t>
+  </si>
+  <si>
+    <t>4. Run all shell file in folder : /scripts</t>
+  </si>
+  <si>
+    <t>Command: ./scripts/fe-exec.sh</t>
+  </si>
+  <si>
+    <t>./scripts/go-exec.sh</t>
+  </si>
+  <si>
+    <t>./scripts/python-exec.sh</t>
   </si>
 </sst>
 </file>
@@ -1229,13 +1241,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1267,13 +1279,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>8819</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>190024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4204,10 +4216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D347"/>
+  <dimension ref="A2:D352"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A334" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="F354" sqref="F354"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A340" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="R356" sqref="R356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4848,34 +4860,54 @@
         <v>37</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C302" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C326" t="s">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
-        <v>51</v>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\training-reactjs\demo\reactjs-typescript-reduxtoolkit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuanha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLI" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Deploy-service-xubuntu" sheetId="11" r:id="rId2"/>
+    <sheet name="Run-demo" sheetId="13" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="________DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
@@ -52,24 +53,43 @@
     <definedName name="________DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="________DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="________DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="________WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="________WCK1">#REF!</definedName>
+    <definedName name="________WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="________WCK2">#REF!</definedName>
+    <definedName name="________WK01" localSheetId="2">#REF!</definedName>
     <definedName name="________WK01">#REF!</definedName>
+    <definedName name="________WK02" localSheetId="2">#REF!</definedName>
     <definedName name="________WK02">#REF!</definedName>
+    <definedName name="________WK03" localSheetId="2">#REF!</definedName>
     <definedName name="________WK03">#REF!</definedName>
+    <definedName name="________WK04" localSheetId="2">#REF!</definedName>
     <definedName name="________WK04">#REF!</definedName>
+    <definedName name="________WK05" localSheetId="2">#REF!</definedName>
     <definedName name="________WK05">#REF!</definedName>
+    <definedName name="________WK06" localSheetId="2">#REF!</definedName>
     <definedName name="________WK06">#REF!</definedName>
+    <definedName name="________WK07" localSheetId="2">#REF!</definedName>
     <definedName name="________WK07">#REF!</definedName>
+    <definedName name="________WK08" localSheetId="2">#REF!</definedName>
     <definedName name="________WK08">#REF!</definedName>
+    <definedName name="________WK09" localSheetId="2">#REF!</definedName>
     <definedName name="________WK09">#REF!</definedName>
+    <definedName name="________WK10" localSheetId="2">#REF!</definedName>
     <definedName name="________WK10">#REF!</definedName>
+    <definedName name="________WK11" localSheetId="2">#REF!</definedName>
     <definedName name="________WK11">#REF!</definedName>
+    <definedName name="________WK12" localSheetId="2">#REF!</definedName>
     <definedName name="________WK12">#REF!</definedName>
+    <definedName name="________WK13" localSheetId="2">#REF!</definedName>
     <definedName name="________WK13">#REF!</definedName>
+    <definedName name="________WK14" localSheetId="2">#REF!</definedName>
     <definedName name="________WK14">#REF!</definedName>
+    <definedName name="________WK15" localSheetId="2">#REF!</definedName>
     <definedName name="________WK15">#REF!</definedName>
+    <definedName name="________WK16" localSheetId="2">#REF!</definedName>
     <definedName name="________WK16">#REF!</definedName>
+    <definedName name="________WK17" localSheetId="2">#REF!</definedName>
     <definedName name="________WK17">#REF!</definedName>
     <definedName name="_______DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
     <definedName name="_______DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
@@ -87,24 +107,43 @@
     <definedName name="_______DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="_______DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="_______DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="_______WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="_______WCK1">#REF!</definedName>
+    <definedName name="_______WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="_______WCK2">#REF!</definedName>
+    <definedName name="_______WK01" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK01">#REF!</definedName>
+    <definedName name="_______WK02" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK02">#REF!</definedName>
+    <definedName name="_______WK03" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK03">#REF!</definedName>
+    <definedName name="_______WK04" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK04">#REF!</definedName>
+    <definedName name="_______WK05" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK05">#REF!</definedName>
+    <definedName name="_______WK06" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK06">#REF!</definedName>
+    <definedName name="_______WK07" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK07">#REF!</definedName>
+    <definedName name="_______WK08" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK08">#REF!</definedName>
+    <definedName name="_______WK09" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK09">#REF!</definedName>
+    <definedName name="_______WK10" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK10">#REF!</definedName>
+    <definedName name="_______WK11" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK11">#REF!</definedName>
+    <definedName name="_______WK12" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK12">#REF!</definedName>
+    <definedName name="_______WK13" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK13">#REF!</definedName>
+    <definedName name="_______WK14" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK14">#REF!</definedName>
+    <definedName name="_______WK15" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK15">#REF!</definedName>
+    <definedName name="_______WK16" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK16">#REF!</definedName>
+    <definedName name="_______WK17" localSheetId="2">#REF!</definedName>
     <definedName name="_______WK17">#REF!</definedName>
     <definedName name="______DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
     <definedName name="______DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
@@ -122,24 +161,43 @@
     <definedName name="______DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="______DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="______DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="______WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="______WCK1">#REF!</definedName>
+    <definedName name="______WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="______WCK2">#REF!</definedName>
+    <definedName name="______WK01" localSheetId="2">#REF!</definedName>
     <definedName name="______WK01">#REF!</definedName>
+    <definedName name="______WK02" localSheetId="2">#REF!</definedName>
     <definedName name="______WK02">#REF!</definedName>
+    <definedName name="______WK03" localSheetId="2">#REF!</definedName>
     <definedName name="______WK03">#REF!</definedName>
+    <definedName name="______WK04" localSheetId="2">#REF!</definedName>
     <definedName name="______WK04">#REF!</definedName>
+    <definedName name="______WK05" localSheetId="2">#REF!</definedName>
     <definedName name="______WK05">#REF!</definedName>
+    <definedName name="______WK06" localSheetId="2">#REF!</definedName>
     <definedName name="______WK06">#REF!</definedName>
+    <definedName name="______WK07" localSheetId="2">#REF!</definedName>
     <definedName name="______WK07">#REF!</definedName>
+    <definedName name="______WK08" localSheetId="2">#REF!</definedName>
     <definedName name="______WK08">#REF!</definedName>
+    <definedName name="______WK09" localSheetId="2">#REF!</definedName>
     <definedName name="______WK09">#REF!</definedName>
+    <definedName name="______WK10" localSheetId="2">#REF!</definedName>
     <definedName name="______WK10">#REF!</definedName>
+    <definedName name="______WK11" localSheetId="2">#REF!</definedName>
     <definedName name="______WK11">#REF!</definedName>
+    <definedName name="______WK12" localSheetId="2">#REF!</definedName>
     <definedName name="______WK12">#REF!</definedName>
+    <definedName name="______WK13" localSheetId="2">#REF!</definedName>
     <definedName name="______WK13">#REF!</definedName>
+    <definedName name="______WK14" localSheetId="2">#REF!</definedName>
     <definedName name="______WK14">#REF!</definedName>
+    <definedName name="______WK15" localSheetId="2">#REF!</definedName>
     <definedName name="______WK15">#REF!</definedName>
+    <definedName name="______WK16" localSheetId="2">#REF!</definedName>
     <definedName name="______WK16">#REF!</definedName>
+    <definedName name="______WK17" localSheetId="2">#REF!</definedName>
     <definedName name="______WK17">#REF!</definedName>
     <definedName name="_____DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
     <definedName name="_____DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
@@ -157,24 +215,43 @@
     <definedName name="_____DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="_____DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="_____DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="_____WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="_____WCK1">#REF!</definedName>
+    <definedName name="_____WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="_____WCK2">#REF!</definedName>
+    <definedName name="_____WK01" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK01">#REF!</definedName>
+    <definedName name="_____WK02" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK02">#REF!</definedName>
+    <definedName name="_____WK03" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK03">#REF!</definedName>
+    <definedName name="_____WK04" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK04">#REF!</definedName>
+    <definedName name="_____WK05" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK05">#REF!</definedName>
+    <definedName name="_____WK06" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK06">#REF!</definedName>
+    <definedName name="_____WK07" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK07">#REF!</definedName>
+    <definedName name="_____WK08" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK08">#REF!</definedName>
+    <definedName name="_____WK09" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK09">#REF!</definedName>
+    <definedName name="_____WK10" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK10">#REF!</definedName>
+    <definedName name="_____WK11" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK11">#REF!</definedName>
+    <definedName name="_____WK12" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK12">#REF!</definedName>
+    <definedName name="_____WK13" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK13">#REF!</definedName>
+    <definedName name="_____WK14" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK14">#REF!</definedName>
+    <definedName name="_____WK15" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK15">#REF!</definedName>
+    <definedName name="_____WK16" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK16">#REF!</definedName>
+    <definedName name="_____WK17" localSheetId="2">#REF!</definedName>
     <definedName name="_____WK17">#REF!</definedName>
     <definedName name="____DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
     <definedName name="____DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
@@ -192,24 +269,43 @@
     <definedName name="____DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="____DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="____DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="____WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="____WCK1">#REF!</definedName>
+    <definedName name="____WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="____WCK2">#REF!</definedName>
+    <definedName name="____WK01" localSheetId="2">#REF!</definedName>
     <definedName name="____WK01">#REF!</definedName>
+    <definedName name="____WK02" localSheetId="2">#REF!</definedName>
     <definedName name="____WK02">#REF!</definedName>
+    <definedName name="____WK03" localSheetId="2">#REF!</definedName>
     <definedName name="____WK03">#REF!</definedName>
+    <definedName name="____WK04" localSheetId="2">#REF!</definedName>
     <definedName name="____WK04">#REF!</definedName>
+    <definedName name="____WK05" localSheetId="2">#REF!</definedName>
     <definedName name="____WK05">#REF!</definedName>
+    <definedName name="____WK06" localSheetId="2">#REF!</definedName>
     <definedName name="____WK06">#REF!</definedName>
+    <definedName name="____WK07" localSheetId="2">#REF!</definedName>
     <definedName name="____WK07">#REF!</definedName>
+    <definedName name="____WK08" localSheetId="2">#REF!</definedName>
     <definedName name="____WK08">#REF!</definedName>
+    <definedName name="____WK09" localSheetId="2">#REF!</definedName>
     <definedName name="____WK09">#REF!</definedName>
+    <definedName name="____WK10" localSheetId="2">#REF!</definedName>
     <definedName name="____WK10">#REF!</definedName>
+    <definedName name="____WK11" localSheetId="2">#REF!</definedName>
     <definedName name="____WK11">#REF!</definedName>
+    <definedName name="____WK12" localSheetId="2">#REF!</definedName>
     <definedName name="____WK12">#REF!</definedName>
+    <definedName name="____WK13" localSheetId="2">#REF!</definedName>
     <definedName name="____WK13">#REF!</definedName>
+    <definedName name="____WK14" localSheetId="2">#REF!</definedName>
     <definedName name="____WK14">#REF!</definedName>
+    <definedName name="____WK15" localSheetId="2">#REF!</definedName>
     <definedName name="____WK15">#REF!</definedName>
+    <definedName name="____WK16" localSheetId="2">#REF!</definedName>
     <definedName name="____WK16">#REF!</definedName>
+    <definedName name="____WK17" localSheetId="2">#REF!</definedName>
     <definedName name="____WK17">#REF!</definedName>
     <definedName name="___DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
     <definedName name="___DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
@@ -227,24 +323,43 @@
     <definedName name="___DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="___DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="___DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="___WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="___WCK1">#REF!</definedName>
+    <definedName name="___WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="___WCK2">#REF!</definedName>
+    <definedName name="___WK01" localSheetId="2">#REF!</definedName>
     <definedName name="___WK01">#REF!</definedName>
+    <definedName name="___WK02" localSheetId="2">#REF!</definedName>
     <definedName name="___WK02">#REF!</definedName>
+    <definedName name="___WK03" localSheetId="2">#REF!</definedName>
     <definedName name="___WK03">#REF!</definedName>
+    <definedName name="___WK04" localSheetId="2">#REF!</definedName>
     <definedName name="___WK04">#REF!</definedName>
+    <definedName name="___WK05" localSheetId="2">#REF!</definedName>
     <definedName name="___WK05">#REF!</definedName>
+    <definedName name="___WK06" localSheetId="2">#REF!</definedName>
     <definedName name="___WK06">#REF!</definedName>
+    <definedName name="___WK07" localSheetId="2">#REF!</definedName>
     <definedName name="___WK07">#REF!</definedName>
+    <definedName name="___WK08" localSheetId="2">#REF!</definedName>
     <definedName name="___WK08">#REF!</definedName>
+    <definedName name="___WK09" localSheetId="2">#REF!</definedName>
     <definedName name="___WK09">#REF!</definedName>
+    <definedName name="___WK10" localSheetId="2">#REF!</definedName>
     <definedName name="___WK10">#REF!</definedName>
+    <definedName name="___WK11" localSheetId="2">#REF!</definedName>
     <definedName name="___WK11">#REF!</definedName>
+    <definedName name="___WK12" localSheetId="2">#REF!</definedName>
     <definedName name="___WK12">#REF!</definedName>
+    <definedName name="___WK13" localSheetId="2">#REF!</definedName>
     <definedName name="___WK13">#REF!</definedName>
+    <definedName name="___WK14" localSheetId="2">#REF!</definedName>
     <definedName name="___WK14">#REF!</definedName>
+    <definedName name="___WK15" localSheetId="2">#REF!</definedName>
     <definedName name="___WK15">#REF!</definedName>
+    <definedName name="___WK16" localSheetId="2">#REF!</definedName>
     <definedName name="___WK16">#REF!</definedName>
+    <definedName name="___WK17" localSheetId="2">#REF!</definedName>
     <definedName name="___WK17">#REF!</definedName>
     <definedName name="__DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
     <definedName name="__DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
@@ -262,24 +377,43 @@
     <definedName name="__DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="__DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="__DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="__WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="__WCK1">#REF!</definedName>
+    <definedName name="__WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="__WCK2">#REF!</definedName>
+    <definedName name="__WK01" localSheetId="2">#REF!</definedName>
     <definedName name="__WK01">#REF!</definedName>
+    <definedName name="__WK02" localSheetId="2">#REF!</definedName>
     <definedName name="__WK02">#REF!</definedName>
+    <definedName name="__WK03" localSheetId="2">#REF!</definedName>
     <definedName name="__WK03">#REF!</definedName>
+    <definedName name="__WK04" localSheetId="2">#REF!</definedName>
     <definedName name="__WK04">#REF!</definedName>
+    <definedName name="__WK05" localSheetId="2">#REF!</definedName>
     <definedName name="__WK05">#REF!</definedName>
+    <definedName name="__WK06" localSheetId="2">#REF!</definedName>
     <definedName name="__WK06">#REF!</definedName>
+    <definedName name="__WK07" localSheetId="2">#REF!</definedName>
     <definedName name="__WK07">#REF!</definedName>
+    <definedName name="__WK08" localSheetId="2">#REF!</definedName>
     <definedName name="__WK08">#REF!</definedName>
+    <definedName name="__WK09" localSheetId="2">#REF!</definedName>
     <definedName name="__WK09">#REF!</definedName>
+    <definedName name="__WK10" localSheetId="2">#REF!</definedName>
     <definedName name="__WK10">#REF!</definedName>
+    <definedName name="__WK11" localSheetId="2">#REF!</definedName>
     <definedName name="__WK11">#REF!</definedName>
+    <definedName name="__WK12" localSheetId="2">#REF!</definedName>
     <definedName name="__WK12">#REF!</definedName>
+    <definedName name="__WK13" localSheetId="2">#REF!</definedName>
     <definedName name="__WK13">#REF!</definedName>
+    <definedName name="__WK14" localSheetId="2">#REF!</definedName>
     <definedName name="__WK14">#REF!</definedName>
+    <definedName name="__WK15" localSheetId="2">#REF!</definedName>
     <definedName name="__WK15">#REF!</definedName>
+    <definedName name="__WK16" localSheetId="2">#REF!</definedName>
     <definedName name="__WK16">#REF!</definedName>
+    <definedName name="__WK17" localSheetId="2">#REF!</definedName>
     <definedName name="__WK17">#REF!</definedName>
     <definedName name="_DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
     <definedName name="_DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
@@ -297,55 +431,94 @@
     <definedName name="_DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
     <definedName name="_DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
     <definedName name="_DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="_FFA" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_FFA" hidden="1">#REF!</definedName>
+    <definedName name="_FFILL" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_FFILL" hidden="1">#REF!</definedName>
+    <definedName name="_Fil" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fil" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_Fill2" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill2" hidden="1">#REF!</definedName>
+    <definedName name="_filla" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_filla" hidden="1">#REF!</definedName>
+    <definedName name="_Key1" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
+    <definedName name="_Regression_X" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
+    <definedName name="_sakai" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_sakai" hidden="1">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
+    <definedName name="_take" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_take" hidden="1">#REF!</definedName>
+    <definedName name="_WCK1" localSheetId="2">#REF!</definedName>
     <definedName name="_WCK1">#REF!</definedName>
+    <definedName name="_WCK2" localSheetId="2">#REF!</definedName>
     <definedName name="_WCK2">#REF!</definedName>
+    <definedName name="_WK01" localSheetId="2">#REF!</definedName>
     <definedName name="_WK01">#REF!</definedName>
+    <definedName name="_WK02" localSheetId="2">#REF!</definedName>
     <definedName name="_WK02">#REF!</definedName>
+    <definedName name="_WK03" localSheetId="2">#REF!</definedName>
     <definedName name="_WK03">#REF!</definedName>
+    <definedName name="_WK04" localSheetId="2">#REF!</definedName>
     <definedName name="_WK04">#REF!</definedName>
+    <definedName name="_WK05" localSheetId="2">#REF!</definedName>
     <definedName name="_WK05">#REF!</definedName>
+    <definedName name="_WK06" localSheetId="2">#REF!</definedName>
     <definedName name="_WK06">#REF!</definedName>
+    <definedName name="_WK07" localSheetId="2">#REF!</definedName>
     <definedName name="_WK07">#REF!</definedName>
+    <definedName name="_WK08" localSheetId="2">#REF!</definedName>
     <definedName name="_WK08">#REF!</definedName>
+    <definedName name="_WK09" localSheetId="2">#REF!</definedName>
     <definedName name="_WK09">#REF!</definedName>
+    <definedName name="_WK10" localSheetId="2">#REF!</definedName>
     <definedName name="_WK10">#REF!</definedName>
+    <definedName name="_WK11" localSheetId="2">#REF!</definedName>
     <definedName name="_WK11">#REF!</definedName>
+    <definedName name="_WK12" localSheetId="2">#REF!</definedName>
     <definedName name="_WK12">#REF!</definedName>
+    <definedName name="_WK13" localSheetId="2">#REF!</definedName>
     <definedName name="_WK13">#REF!</definedName>
+    <definedName name="_WK14" localSheetId="2">#REF!</definedName>
     <definedName name="_WK14">#REF!</definedName>
+    <definedName name="_WK15" localSheetId="2">#REF!</definedName>
     <definedName name="_WK15">#REF!</definedName>
+    <definedName name="_WK16" localSheetId="2">#REF!</definedName>
     <definedName name="_WK16">#REF!</definedName>
+    <definedName name="_WK17" localSheetId="2">#REF!</definedName>
     <definedName name="_WK17">#REF!</definedName>
+    <definedName name="a" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="a" hidden="1">#REF!</definedName>
     <definedName name="a_columnsRef">[2]!a_columnsRef</definedName>
     <definedName name="aaa" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
     <definedName name="aaaaa" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="b" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="b" hidden="1">#REF!</definedName>
     <definedName name="bbb" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
     <definedName name="ccc" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
     <definedName name="CTLGP">[1]日付ﾃｰﾌﾞﾙ!$B$27</definedName>
+    <definedName name="D" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="D" hidden="1">#REF!</definedName>
+    <definedName name="ｄｄ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ｄｄ" hidden="1">#REF!</definedName>
     <definedName name="e" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="Endmsg2" localSheetId="2">[3]!Endmsg2</definedName>
     <definedName name="Endmsg2">[3]!Endmsg2</definedName>
+    <definedName name="f" localSheetId="2" hidden="1">'[4]TG067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
     <definedName name="f" hidden="1">'[4]TG067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
     <definedName name="g" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="ｇ" localSheetId="2" hidden="1">'[5]#REF'!#REF!</definedName>
     <definedName name="ｇ" hidden="1">'[5]#REF'!#REF!</definedName>
     <definedName name="ＨＤ行">[6]２!$C$1:$AP$5</definedName>
+    <definedName name="HHH" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="HHH" hidden="1">#REF!</definedName>
+    <definedName name="hoge" localSheetId="2">[3]!Endmsg2</definedName>
     <definedName name="hoge">[3]!Endmsg2</definedName>
     <definedName name="HTML_CodePage" hidden="1">932</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
@@ -378,65 +551,102 @@
     <definedName name="HTML1_9" hidden="1">"日立西部ソフトウェア(株)"</definedName>
     <definedName name="HTMLCount" hidden="1">1</definedName>
     <definedName name="IO">[7]Config!$D$2:$D$4</definedName>
+    <definedName name="Kassei" localSheetId="2">#REF!</definedName>
     <definedName name="Kassei">#REF!</definedName>
     <definedName name="mau" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AP$353</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AL$420</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Run-demo'!$A$1:$AL$117</definedName>
+    <definedName name="Ｑ" localSheetId="2" hidden="1">[8]GBND565!#REF!</definedName>
     <definedName name="Ｑ" hidden="1">[8]GBND565!#REF!</definedName>
+    <definedName name="ＱＱＱＱＱ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ＱＱＱＱＱ" hidden="1">#REF!</definedName>
+    <definedName name="range_Alignment" localSheetId="2">#REF!</definedName>
     <definedName name="range_Alignment">#REF!</definedName>
     <definedName name="range_ControlName">'[9]Config List'!$A$2:$A$35</definedName>
+    <definedName name="range_IO" localSheetId="2">#REF!</definedName>
     <definedName name="range_IO">#REF!</definedName>
+    <definedName name="range_IOFull" localSheetId="2">#REF!</definedName>
     <definedName name="range_IOFull">#REF!</definedName>
+    <definedName name="range_Property" localSheetId="2">#REF!</definedName>
     <definedName name="range_Property">#REF!</definedName>
+    <definedName name="range_YN" localSheetId="2">#REF!</definedName>
     <definedName name="range_YN">#REF!</definedName>
+    <definedName name="S31旧バッチＰＧＭ" localSheetId="2">#REF!</definedName>
     <definedName name="S31旧バッチＰＧＭ">#REF!</definedName>
+    <definedName name="SHEET3" localSheetId="2">#REF!</definedName>
     <definedName name="SHEET3">#REF!</definedName>
     <definedName name="ｓｓ" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="sss" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
+    <definedName name="TODAY" localSheetId="2">#REF!</definedName>
     <definedName name="TODAY">#REF!</definedName>
+    <definedName name="Ｗ" localSheetId="2" hidden="1">'[10]TG067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
     <definedName name="Ｗ" hidden="1">'[10]TG067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
     <definedName name="wrn.まとめ." hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="あ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あ" hidden="1">#REF!</definedName>
     <definedName name="ああ" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
     <definedName name="ああｑ" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
     <definedName name="あああ" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="あああああ" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="あああああ" hidden="1">#REF!</definedName>
+    <definedName name="え" localSheetId="2" hidden="1">'[4]TG067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
     <definedName name="え" hidden="1">'[4]TG067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
+    <definedName name="オートシェイプ80" localSheetId="2">#REF!</definedName>
     <definedName name="オートシェイプ80">#REF!</definedName>
+    <definedName name="オートシェイプ81" localSheetId="2">#REF!</definedName>
     <definedName name="オートシェイプ81">#REF!</definedName>
+    <definedName name="クラスライブラリ抽出" localSheetId="2">#REF!</definedName>
     <definedName name="クラスライブラリ抽出">#REF!</definedName>
+    <definedName name="ｽﾃｰﾀｽ" localSheetId="2">#REF!</definedName>
     <definedName name="ｽﾃｰﾀｽ">#REF!</definedName>
     <definedName name="てｓｔ" hidden="1">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="ﾃﾞｰﾀ辞書_参照用" localSheetId="2">#REF!</definedName>
     <definedName name="ﾃﾞｰﾀ辞書_参照用">#REF!</definedName>
+    <definedName name="テストケースを" localSheetId="2" hidden="1">[8]GBND565!#REF!</definedName>
     <definedName name="テストケースを" hidden="1">[8]GBND565!#REF!</definedName>
+    <definedName name="ボタン制御マトリクス" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="ボタン制御マトリクス" hidden="1">#REF!</definedName>
     <definedName name="まとめ" hidden="1">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
     <definedName name="メッセージ区分">[11]Config!$G$2:$G$4</definedName>
     <definedName name="ランク">[12]リスト定義!$A$4:$A$6</definedName>
     <definedName name="リソース">[13]マスターデータ!$B$2:$B$50</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度基準値" localSheetId="2">#REF!</definedName>
     <definedName name="ﾚﾋﾞｭｰ密度基準値">#REF!</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度目標値" localSheetId="2">#REF!</definedName>
     <definedName name="ﾚﾋﾞｭｰ密度目標値">#REF!</definedName>
     <definedName name="ロール">[13]マスターデータ!$AD$2:$AD$13</definedName>
+    <definedName name="中長期" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="中長期" hidden="1">#REF!</definedName>
     <definedName name="処理サイト">[14]Config!$F$2:$F$3</definedName>
     <definedName name="前提条件">"テキスト 1"</definedName>
     <definedName name="属性">[7]Config!$C$2:$C$7</definedName>
+    <definedName name="工程" localSheetId="2">'[15]１０ 概算見積 要員計画'!#REF!</definedName>
     <definedName name="工程">'[15]１０ 概算見積 要員計画'!#REF!</definedName>
+    <definedName name="帳票" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="帳票" hidden="1">#REF!</definedName>
     <definedName name="従業員分類">[16]部署リスト!$J$3:$J$8</definedName>
     <definedName name="必須">[7]Config!$B$2</definedName>
+    <definedName name="指摘率基準値" localSheetId="2">#REF!</definedName>
     <definedName name="指摘率基準値">#REF!</definedName>
+    <definedName name="指摘率目標値" localSheetId="2">#REF!</definedName>
     <definedName name="指摘率目標値">#REF!</definedName>
+    <definedName name="改廃履歴" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="改廃履歴" hidden="1">#REF!</definedName>
+    <definedName name="改廃履歴１" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="改廃履歴１" hidden="1">#REF!</definedName>
     <definedName name="文書版一覧">[17]目次!$C$36:$F$41</definedName>
+    <definedName name="最大ﾚﾋﾞｭｰ密度" localSheetId="2">#REF!</definedName>
     <definedName name="最大ﾚﾋﾞｭｰ密度">#REF!</definedName>
+    <definedName name="最大指摘率" localSheetId="2">#REF!</definedName>
     <definedName name="最大指摘率">#REF!</definedName>
     <definedName name="横位置">[7]Config!$E$2:$E$4</definedName>
+    <definedName name="状態遷移表" localSheetId="2">#REF!</definedName>
     <definedName name="状態遷移表">#REF!</definedName>
     <definedName name="画面項目数">[18]状態遷移画面項目属性一覧!$N$3</definedName>
     <definedName name="部署ﾘｽﾄNE">[16]部署リスト!$H$3:$H$26</definedName>
     <definedName name="部署ﾘｽﾄNETS">[16]部署リスト!$E$3:$E$33</definedName>
+    <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
     <definedName name="項目名">[7]Config!$A$2:$A$18</definedName>
   </definedNames>
@@ -457,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>https://www.red-gate.com/simple-talk/development/dotnet-development/creating-ccli-wrapper/</t>
   </si>
@@ -628,6 +838,42 @@
   </si>
   <si>
     <t>./scripts/python-exec.sh</t>
+  </si>
+  <si>
+    <t>I. Open in browser</t>
+  </si>
+  <si>
+    <t>1. Open browser with link : localhost:3000</t>
+  </si>
+  <si>
+    <t>II. Open view stream</t>
+  </si>
+  <si>
+    <t>1. Click on "Multiview Stream" in nav-left menu</t>
+  </si>
+  <si>
+    <t>2. Select stream mode (1 stream, 4 stream, 9 stream,…)</t>
+  </si>
+  <si>
+    <t>3. Click on "+" button in center of the screen</t>
+  </si>
+  <si>
+    <t>4. Select live you want to view</t>
+  </si>
+  <si>
+    <t>III. Open view record</t>
+  </si>
+  <si>
+    <t>1. Click on "MultiviewRecord" in nav-left menu</t>
+  </si>
+  <si>
+    <t>2. Select sub-frame in playback frame</t>
+  </si>
+  <si>
+    <t>3. Move the mouse to the bottom of the playback frame</t>
+  </si>
+  <si>
+    <t>4. Click on play button in center of the screen</t>
   </si>
 </sst>
 </file>
@@ -1313,6 +1559,651 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>37409</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>9024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="67246500"/>
+          <a:ext cx="5523809" cy="4009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>56457</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>28071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="71437500"/>
+          <a:ext cx="5542857" cy="4028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>56457</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>66167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="75628500"/>
+          <a:ext cx="5542857" cy="4066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>119176</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127809</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="155373" y="1913166"/>
+          <a:ext cx="5690709" cy="2977143"/>
+          <a:chOff x="151678" y="1913166"/>
+          <a:chExt cx="5557688" cy="2977143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="Picture 19"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="151678" y="1913166"/>
+            <a:ext cx="5557688" cy="2977143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rectangle 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="172857" y="2383971"/>
+            <a:ext cx="405588" cy="125186"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2715423" y="3535417"/>
+            <a:ext cx="231415" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="809861" y="2342493"/>
+            <a:ext cx="837073" cy="136071"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>118584</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>116786</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="154781" y="5143500"/>
+          <a:ext cx="5690709" cy="2974286"/>
+          <a:chOff x="151086" y="5143500"/>
+          <a:chExt cx="5557688" cy="2974286"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="151086" y="5143500"/>
+            <a:ext cx="5557688" cy="2974286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rectangle 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2167759" y="5616466"/>
+            <a:ext cx="1530569" cy="2220310"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46610</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>116786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="151086" y="8382000"/>
+          <a:ext cx="5485714" cy="2974286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3107</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>6471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>127385</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>126902</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Group 38"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="157888" y="12769971"/>
+          <a:ext cx="5696403" cy="2977931"/>
+          <a:chOff x="157888" y="12769971"/>
+          <a:chExt cx="5696403" cy="2977931"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="Picture 34"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="157888" y="12769971"/>
+            <a:ext cx="5696403" cy="2977931"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rectangle 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="190500" y="13376672"/>
+            <a:ext cx="398859" cy="101203"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Rectangle 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1154906" y="14299406"/>
+            <a:ext cx="2083594" cy="1148953"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2988469" y="15311437"/>
+            <a:ext cx="113109" cy="95250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4218,8 +5109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D352"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A340" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="R356" sqref="R356"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4915,4 +5806,84 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="Q88" sqref="Q88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="2.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SECOM\training-reactjs\demo\reactjs-typescript-reduxtoolkit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CLI" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="Deploy-service-xubuntu" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Run-demo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CLI" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Deploy-service-xubuntu" sheetId="2" r:id="rId2"/>
+    <sheet name="Run-demo" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
@@ -22,623 +27,610 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Deploy-service-xubuntu'!$A$1:$AL$355</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Run-demo'!$A$1:$AL$117</definedName>
-    <definedName function="false" hidden="false" name="a" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="aaa" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="aaaaa" vbProcedure="false">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName function="false" hidden="false" name="a_columnsRef" vbProcedure="false">[2]!a_columnsRef</definedName>
-    <definedName function="false" hidden="false" name="b" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="bbb" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="ccc" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="CTLGP" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$27</definedName>
-    <definedName function="false" hidden="false" name="D" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="e" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="Endmsg2" vbProcedure="false">[3]!Endmsg2</definedName>
-    <definedName function="false" hidden="false" name="f" vbProcedure="false">'[4]tg067(通貨ｺｰﾄﾞ)'!#ref!</definedName>
-    <definedName function="false" hidden="false" name="g" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="HHH" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="hoge" vbProcedure="false">[3]!Endmsg2</definedName>
-    <definedName function="false" hidden="false" name="HTML1_1" vbProcedure="false">"'[MILLE999.xls]価格表（社外出力） (2)'!$A$1:$E$225"</definedName>
-    <definedName function="false" hidden="false" name="HTML1_10" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="HTML1_11" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="HTML1_12" vbProcedure="false">"J:\Ｎ技２\IWASHITA\MyHTML.htm"</definedName>
-    <definedName function="false" hidden="false" name="HTML1_13" vbProcedure="false">#N/A</definedName>
-    <definedName function="false" hidden="false" name="HTML1_14" vbProcedure="false">#N/A</definedName>
-    <definedName function="false" hidden="false" name="HTML1_15" vbProcedure="false">#N/A</definedName>
-    <definedName function="false" hidden="false" name="HTML1_2" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="HTML1_3" vbProcedure="false">"MILLE999.xls"</definedName>
-    <definedName function="false" hidden="false" name="HTML1_4" vbProcedure="false">"価格表（社外出力） (2)"</definedName>
-    <definedName function="false" hidden="false" name="HTML1_5" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="HTML1_6" vbProcedure="false">-4146</definedName>
-    <definedName function="false" hidden="false" name="HTML1_7" vbProcedure="false">-4146</definedName>
-    <definedName function="false" hidden="false" name="HTML1_8" vbProcedure="false">"98/03/13"</definedName>
-    <definedName function="false" hidden="false" name="HTML1_9" vbProcedure="false">"日立西部ソフトウェア(株)"</definedName>
-    <definedName function="false" hidden="false" name="HTMLCount" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="HTML_CodePage" vbProcedure="false">932</definedName>
-    <definedName function="false" hidden="false" name="HTML_Control" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="HTML_Description" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="HTML_Email" vbProcedure="false">""</definedName>
-    <definedName function="false" hidden="false" name="HTML_Header" vbProcedure="false">"個人情報マスター (Kojin_Mst)"</definedName>
-    <definedName function="false" hidden="false" name="HTML_LastUpdate" vbProcedure="false">"97/10/07"</definedName>
-    <definedName function="false" hidden="false" name="HTML_LineAfter" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="HTML_LineBefore" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="HTML_Name" vbProcedure="false">"竹重"</definedName>
-    <definedName function="false" hidden="false" name="HTML_OBDlg2" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="HTML_OBDlg4" vbProcedure="false">1</definedName>
-    <definedName function="false" hidden="false" name="HTML_OS" vbProcedure="false">0</definedName>
-    <definedName function="false" hidden="false" name="HTML_PathFile" vbProcedure="false">"C:\html_f\Kojin_Mst.htm"</definedName>
-    <definedName function="false" hidden="false" name="HTML_Title" vbProcedure="false">"個人情報マスター"</definedName>
-    <definedName function="false" hidden="false" name="IO" vbProcedure="false">[7]Config!$D$2:$D$4</definedName>
-    <definedName function="false" hidden="false" name="Kassei" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="mau" vbProcedure="false">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName function="false" hidden="false" name="range_Alignment" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="range_ControlName" vbProcedure="false">'[9]Config List'!$A$2:$A$35</definedName>
-    <definedName function="false" hidden="false" name="range_IO" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="range_IOFull" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="range_Property" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="range_YN" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="S31旧バッチＰＧＭ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="SHEET3" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="sss" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="TODAY" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="wrn.まとめ." vbProcedure="false">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName function="false" hidden="false" name="_DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="_DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="_FFA" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_FFILL" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_Fil" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_Fill" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_Fill2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_filla" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_Key1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_Order1" vbProcedure="false">255</definedName>
-    <definedName function="false" hidden="false" name="_Order2" vbProcedure="false">255</definedName>
-    <definedName function="false" hidden="false" name="_Regression_X" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_sakai" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_Sort" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_take" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="__DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="__WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="__WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="___DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="___WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="___WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="____DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="____WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="____WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="_____DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="_____WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_____WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="______DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="______WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="______WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="_______DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="_______WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="_______WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________DAY01" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY02" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY03" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY04" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY05" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY06" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY07" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY08" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY09" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY10" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY11" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY12" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY13" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY14" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY15" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
-    <definedName function="false" hidden="false" name="________DAY16" vbProcedure="false">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
-    <definedName function="false" hidden="false" name="________WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="________WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="あ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="ああ" vbProcedure="false">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName function="false" hidden="false" name="あああ" vbProcedure="false">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName function="false" hidden="false" name="あああああ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="ああｑ" vbProcedure="false">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName function="false" hidden="false" name="え" vbProcedure="false">'[4]tg067(通貨ｺｰﾄﾞ)'!#ref!</definedName>
-    <definedName function="false" hidden="false" name="てｓｔ" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="まとめ" vbProcedure="false">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName function="false" hidden="false" name="オートシェイプ80" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="オートシェイプ81" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="クラスライブラリ抽出" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="テストケースを" vbProcedure="false">[8]gbnd565!#ref!</definedName>
-    <definedName function="false" hidden="false" name="ボタン制御マトリクス" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="メッセージ区分" vbProcedure="false">[11]config!$g$2:#REF!</definedName>
-    <definedName function="false" hidden="false" name="ランク" vbProcedure="false">[11]リスト定義!$A$4:$A$6</definedName>
-    <definedName function="false" hidden="false" name="リソース" vbProcedure="false">[12]マスターデータ!$B$2:$B$50</definedName>
-    <definedName function="false" hidden="false" name="ロール" vbProcedure="false">[12]マスターデータ!$AD$2:$AD$13</definedName>
-    <definedName function="false" hidden="false" name="中長期" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="処理サイト" vbProcedure="false">[13]Config!$F$2:$F$3</definedName>
-    <definedName function="false" hidden="false" name="前提条件" vbProcedure="false">"テキスト 1"</definedName>
-    <definedName function="false" hidden="false" name="属性" vbProcedure="false">[7]Config!$C$2:$C$7</definedName>
-    <definedName function="false" hidden="false" name="工程" vbProcedure="false">'[15]１０ 概算見積 要員計画'!#ref!</definedName>
-    <definedName function="false" hidden="false" name="帳票" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="従業員分類" vbProcedure="false">[15]部署リスト!$J$3:$J$8</definedName>
-    <definedName function="false" hidden="false" name="必須" vbProcedure="false">[7]Config!$B$2</definedName>
-    <definedName function="false" hidden="false" name="指摘率基準値" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="指摘率目標値" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="改廃履歴" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="改廃履歴１" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="文書版一覧" vbProcedure="false">[16]目次!$C$36:$F$41</definedName>
-    <definedName function="false" hidden="false" name="最大指摘率" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="最大ﾚﾋﾞｭｰ密度" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="横位置" vbProcedure="false">[7]Config!$E$2:$E$4</definedName>
-    <definedName function="false" hidden="false" name="状態遷移表" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="画面項目数" vbProcedure="false">[17]状態遷移画面項目属性一覧!$N$3</definedName>
-    <definedName function="false" hidden="false" name="部署ﾘｽﾄNE" vbProcedure="false">[15]部署リスト!$H$3:$H$26</definedName>
-    <definedName function="false" hidden="false" name="部署ﾘｽﾄNETS" vbProcedure="false">[15]部署リスト!$E$3:$E$33</definedName>
-    <definedName function="false" hidden="false" name="関連表" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="項目名" vbProcedure="false">[7]Config!$A$2:$A$18</definedName>
-    <definedName function="false" hidden="false" name="ｄｄ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="ｇ" vbProcedure="false">'[5]#ref'!#ref!</definedName>
-    <definedName function="false" hidden="false" name="ＨＤ行" vbProcedure="false">[6]２!$C$1:$AP$5</definedName>
-    <definedName function="false" hidden="false" name="Ｑ" vbProcedure="false">[8]gbnd565!#ref!</definedName>
-    <definedName function="false" hidden="false" name="ＱＱＱＱＱ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="ｓｓ" vbProcedure="false">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
-    <definedName function="false" hidden="false" name="Ｗ" vbProcedure="false">'[10]tg067(通貨ｺｰﾄﾞ)'!#ref!</definedName>
-    <definedName function="false" hidden="false" name="ｽﾃｰﾀｽ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="ﾃﾞｰﾀ辞書_参照用" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="ﾚﾋﾞｭｰ密度基準値" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="ﾚﾋﾞｭｰ密度目標値" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="a" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="b" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="D" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="Endmsg2" vbProcedure="false">[3]!Endmsg2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="f" vbProcedure="false">'[4]tg067(通貨ｺｰﾄﾞ)'!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="HHH" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="hoge" vbProcedure="false">[3]!Endmsg2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="Kassei" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="range_Alignment" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="range_IO" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="range_IOFull" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="range_Property" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="range_YN" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="S31旧バッチＰＧＭ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="SHEET3" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="sss" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="TODAY" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FFA" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FFILL" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_Fil" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_Fill" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_Fill2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_filla" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_Key1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_Regression_X" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_sakai" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_Sort" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_take" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="__WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="___WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="____WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_____WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="______WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_______WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WCK1" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WCK2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK01" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK02" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK03" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK04" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK05" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK06" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK07" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK08" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK09" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK10" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK11" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK12" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK13" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK14" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK15" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK16" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="________WK17" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="あ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="あああああ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="え" vbProcedure="false">'[4]tg067(通貨ｺｰﾄﾞ)'!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="オートシェイプ80" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="オートシェイプ81" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="クラスライブラリ抽出" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="テストケースを" vbProcedure="false">[8]gbnd565!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ボタン制御マトリクス" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="中長期" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="工程" vbProcedure="false">'[15]１０ 概算見積 要員計画'!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="帳票" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="指摘率基準値" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="指摘率目標値" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="改廃履歴" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="改廃履歴１" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="最大指摘率" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="最大ﾚﾋﾞｭｰ密度" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="状態遷移表" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="関連表" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ｄｄ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ｇ" vbProcedure="false">'[5]#ref'!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="Ｑ" vbProcedure="false">[8]gbnd565!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ＱＱＱＱＱ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="Ｗ" vbProcedure="false">'[10]tg067(通貨ｺｰﾄﾞ)'!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ｽﾃｰﾀｽ" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ﾃﾞｰﾀ辞書_参照用" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ﾚﾋﾞｭｰ密度基準値" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="ﾚﾋﾞｭｰ密度目標値" vbProcedure="false">#REF!</definedName>
+    <definedName name="________DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="________DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="________DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="________DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="________DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="________DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="________DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="________DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="________DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="________DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="________DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="________DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="________DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="________DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="________DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="________DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="________WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="________WCK1">#REF!</definedName>
+    <definedName name="________WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="________WCK2">#REF!</definedName>
+    <definedName name="________WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK01">#REF!</definedName>
+    <definedName name="________WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK02">#REF!</definedName>
+    <definedName name="________WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK03">#REF!</definedName>
+    <definedName name="________WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK04">#REF!</definedName>
+    <definedName name="________WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK05">#REF!</definedName>
+    <definedName name="________WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK06">#REF!</definedName>
+    <definedName name="________WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK07">#REF!</definedName>
+    <definedName name="________WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK08">#REF!</definedName>
+    <definedName name="________WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK09">#REF!</definedName>
+    <definedName name="________WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK10">#REF!</definedName>
+    <definedName name="________WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK11">#REF!</definedName>
+    <definedName name="________WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK12">#REF!</definedName>
+    <definedName name="________WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK13">#REF!</definedName>
+    <definedName name="________WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK14">#REF!</definedName>
+    <definedName name="________WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK15">#REF!</definedName>
+    <definedName name="________WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK16">#REF!</definedName>
+    <definedName name="________WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="________WK17">#REF!</definedName>
+    <definedName name="_______DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="_______DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="_______DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="_______DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="_______DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="_______DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="_______DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="_______DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="_______DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="_______DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="_______DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="_______DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="_______DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="_______DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="_______DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="_______DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="_______WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WCK1">#REF!</definedName>
+    <definedName name="_______WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WCK2">#REF!</definedName>
+    <definedName name="_______WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK01">#REF!</definedName>
+    <definedName name="_______WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK02">#REF!</definedName>
+    <definedName name="_______WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK03">#REF!</definedName>
+    <definedName name="_______WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK04">#REF!</definedName>
+    <definedName name="_______WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK05">#REF!</definedName>
+    <definedName name="_______WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK06">#REF!</definedName>
+    <definedName name="_______WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK07">#REF!</definedName>
+    <definedName name="_______WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK08">#REF!</definedName>
+    <definedName name="_______WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK09">#REF!</definedName>
+    <definedName name="_______WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK10">#REF!</definedName>
+    <definedName name="_______WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK11">#REF!</definedName>
+    <definedName name="_______WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK12">#REF!</definedName>
+    <definedName name="_______WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK13">#REF!</definedName>
+    <definedName name="_______WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK14">#REF!</definedName>
+    <definedName name="_______WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK15">#REF!</definedName>
+    <definedName name="_______WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK16">#REF!</definedName>
+    <definedName name="_______WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="_______WK17">#REF!</definedName>
+    <definedName name="______DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="______DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="______DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="______DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="______DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="______DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="______DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="______DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="______DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="______DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="______DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="______DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="______DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="______DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="______DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="______DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="______WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="______WCK1">#REF!</definedName>
+    <definedName name="______WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="______WCK2">#REF!</definedName>
+    <definedName name="______WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK01">#REF!</definedName>
+    <definedName name="______WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK02">#REF!</definedName>
+    <definedName name="______WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK03">#REF!</definedName>
+    <definedName name="______WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK04">#REF!</definedName>
+    <definedName name="______WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK05">#REF!</definedName>
+    <definedName name="______WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK06">#REF!</definedName>
+    <definedName name="______WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK07">#REF!</definedName>
+    <definedName name="______WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK08">#REF!</definedName>
+    <definedName name="______WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK09">#REF!</definedName>
+    <definedName name="______WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK10">#REF!</definedName>
+    <definedName name="______WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK11">#REF!</definedName>
+    <definedName name="______WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK12">#REF!</definedName>
+    <definedName name="______WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK13">#REF!</definedName>
+    <definedName name="______WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK14">#REF!</definedName>
+    <definedName name="______WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK15">#REF!</definedName>
+    <definedName name="______WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK16">#REF!</definedName>
+    <definedName name="______WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="______WK17">#REF!</definedName>
+    <definedName name="_____DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="_____DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="_____DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="_____DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="_____DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="_____DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="_____DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="_____DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="_____DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="_____DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="_____DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="_____DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="_____DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="_____DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="_____DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="_____DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="_____WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WCK1">#REF!</definedName>
+    <definedName name="_____WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WCK2">#REF!</definedName>
+    <definedName name="_____WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK01">#REF!</definedName>
+    <definedName name="_____WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK02">#REF!</definedName>
+    <definedName name="_____WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK03">#REF!</definedName>
+    <definedName name="_____WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK04">#REF!</definedName>
+    <definedName name="_____WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK05">#REF!</definedName>
+    <definedName name="_____WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK06">#REF!</definedName>
+    <definedName name="_____WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK07">#REF!</definedName>
+    <definedName name="_____WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK08">#REF!</definedName>
+    <definedName name="_____WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK09">#REF!</definedName>
+    <definedName name="_____WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK10">#REF!</definedName>
+    <definedName name="_____WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK11">#REF!</definedName>
+    <definedName name="_____WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK12">#REF!</definedName>
+    <definedName name="_____WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK13">#REF!</definedName>
+    <definedName name="_____WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK14">#REF!</definedName>
+    <definedName name="_____WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK15">#REF!</definedName>
+    <definedName name="_____WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK16">#REF!</definedName>
+    <definedName name="_____WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="_____WK17">#REF!</definedName>
+    <definedName name="____DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="____DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="____DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="____DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="____DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="____DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="____DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="____DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="____DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="____DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="____DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="____DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="____DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="____DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="____DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="____DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="____WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="____WCK1">#REF!</definedName>
+    <definedName name="____WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="____WCK2">#REF!</definedName>
+    <definedName name="____WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK01">#REF!</definedName>
+    <definedName name="____WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK02">#REF!</definedName>
+    <definedName name="____WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK03">#REF!</definedName>
+    <definedName name="____WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK04">#REF!</definedName>
+    <definedName name="____WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK05">#REF!</definedName>
+    <definedName name="____WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK06">#REF!</definedName>
+    <definedName name="____WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK07">#REF!</definedName>
+    <definedName name="____WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK08">#REF!</definedName>
+    <definedName name="____WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK09">#REF!</definedName>
+    <definedName name="____WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK10">#REF!</definedName>
+    <definedName name="____WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK11">#REF!</definedName>
+    <definedName name="____WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK12">#REF!</definedName>
+    <definedName name="____WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK13">#REF!</definedName>
+    <definedName name="____WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK14">#REF!</definedName>
+    <definedName name="____WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK15">#REF!</definedName>
+    <definedName name="____WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK16">#REF!</definedName>
+    <definedName name="____WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="____WK17">#REF!</definedName>
+    <definedName name="___DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="___DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="___DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="___DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="___DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="___DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="___DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="___DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="___DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="___DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="___DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="___DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="___DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="___DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="___DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="___DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="___WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="___WCK1">#REF!</definedName>
+    <definedName name="___WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="___WCK2">#REF!</definedName>
+    <definedName name="___WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK01">#REF!</definedName>
+    <definedName name="___WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK02">#REF!</definedName>
+    <definedName name="___WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK03">#REF!</definedName>
+    <definedName name="___WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK04">#REF!</definedName>
+    <definedName name="___WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK05">#REF!</definedName>
+    <definedName name="___WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK06">#REF!</definedName>
+    <definedName name="___WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK07">#REF!</definedName>
+    <definedName name="___WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK08">#REF!</definedName>
+    <definedName name="___WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK09">#REF!</definedName>
+    <definedName name="___WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK10">#REF!</definedName>
+    <definedName name="___WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK11">#REF!</definedName>
+    <definedName name="___WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK12">#REF!</definedName>
+    <definedName name="___WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK13">#REF!</definedName>
+    <definedName name="___WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK14">#REF!</definedName>
+    <definedName name="___WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK15">#REF!</definedName>
+    <definedName name="___WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK16">#REF!</definedName>
+    <definedName name="___WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="___WK17">#REF!</definedName>
+    <definedName name="__DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="__DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="__DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="__DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="__DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="__DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="__DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="__DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="__DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="__DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="__DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="__DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="__DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="__DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="__DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="__DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="__WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="__WCK1">#REF!</definedName>
+    <definedName name="__WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="__WCK2">#REF!</definedName>
+    <definedName name="__WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK01">#REF!</definedName>
+    <definedName name="__WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK02">#REF!</definedName>
+    <definedName name="__WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK03">#REF!</definedName>
+    <definedName name="__WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK04">#REF!</definedName>
+    <definedName name="__WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK05">#REF!</definedName>
+    <definedName name="__WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK06">#REF!</definedName>
+    <definedName name="__WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK07">#REF!</definedName>
+    <definedName name="__WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK08">#REF!</definedName>
+    <definedName name="__WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK09">#REF!</definedName>
+    <definedName name="__WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK10">#REF!</definedName>
+    <definedName name="__WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK11">#REF!</definedName>
+    <definedName name="__WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK12">#REF!</definedName>
+    <definedName name="__WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK13">#REF!</definedName>
+    <definedName name="__WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK14">#REF!</definedName>
+    <definedName name="__WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK15">#REF!</definedName>
+    <definedName name="__WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK16">#REF!</definedName>
+    <definedName name="__WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="__WK17">#REF!</definedName>
+    <definedName name="_DAY01">[1]日付ﾃｰﾌﾞﾙ!$B$21</definedName>
+    <definedName name="_DAY02">[1]日付ﾃｰﾌﾞﾙ!$C$21</definedName>
+    <definedName name="_DAY03">[1]日付ﾃｰﾌﾞﾙ!$D$21</definedName>
+    <definedName name="_DAY04">[1]日付ﾃｰﾌﾞﾙ!$E$21</definedName>
+    <definedName name="_DAY05">[1]日付ﾃｰﾌﾞﾙ!$F$21</definedName>
+    <definedName name="_DAY06">[1]日付ﾃｰﾌﾞﾙ!$G$21</definedName>
+    <definedName name="_DAY07">[1]日付ﾃｰﾌﾞﾙ!$H$21</definedName>
+    <definedName name="_DAY08">[1]日付ﾃｰﾌﾞﾙ!$I$21</definedName>
+    <definedName name="_DAY09">[1]日付ﾃｰﾌﾞﾙ!$J$21</definedName>
+    <definedName name="_DAY10">[1]日付ﾃｰﾌﾞﾙ!$K$21</definedName>
+    <definedName name="_DAY11">[1]日付ﾃｰﾌﾞﾙ!$L$21</definedName>
+    <definedName name="_DAY12">[1]日付ﾃｰﾌﾞﾙ!$M$21</definedName>
+    <definedName name="_DAY13">[1]日付ﾃｰﾌﾞﾙ!$N$21</definedName>
+    <definedName name="_DAY14">[1]日付ﾃｰﾌﾞﾙ!$O$21</definedName>
+    <definedName name="_DAY15">[1]日付ﾃｰﾌﾞﾙ!$P$21</definedName>
+    <definedName name="_DAY16">[1]日付ﾃｰﾌﾞﾙ!$Q$21</definedName>
+    <definedName name="_FFA" localSheetId="2">#REF!</definedName>
+    <definedName name="_FFA">#REF!</definedName>
+    <definedName name="_FFILL" localSheetId="2">#REF!</definedName>
+    <definedName name="_FFILL">#REF!</definedName>
+    <definedName name="_Fil" localSheetId="2">#REF!</definedName>
+    <definedName name="_Fil">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2">#REF!</definedName>
+    <definedName name="_Fill">#REF!</definedName>
+    <definedName name="_Fill2" localSheetId="2">#REF!</definedName>
+    <definedName name="_Fill2">#REF!</definedName>
+    <definedName name="_filla" localSheetId="2">#REF!</definedName>
+    <definedName name="_filla">#REF!</definedName>
+    <definedName name="_Key1" localSheetId="2">#REF!</definedName>
+    <definedName name="_Key1">#REF!</definedName>
+    <definedName name="_Order1">255</definedName>
+    <definedName name="_Order2">255</definedName>
+    <definedName name="_Regression_X" localSheetId="2">#REF!</definedName>
+    <definedName name="_Regression_X">#REF!</definedName>
+    <definedName name="_sakai" localSheetId="2">#REF!</definedName>
+    <definedName name="_sakai">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="2">#REF!</definedName>
+    <definedName name="_Sort">#REF!</definedName>
+    <definedName name="_take" localSheetId="2">#REF!</definedName>
+    <definedName name="_take">#REF!</definedName>
+    <definedName name="_WCK1" localSheetId="2">#REF!</definedName>
+    <definedName name="_WCK1">#REF!</definedName>
+    <definedName name="_WCK2" localSheetId="2">#REF!</definedName>
+    <definedName name="_WCK2">#REF!</definedName>
+    <definedName name="_WK01" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK01">#REF!</definedName>
+    <definedName name="_WK02" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK02">#REF!</definedName>
+    <definedName name="_WK03" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK03">#REF!</definedName>
+    <definedName name="_WK04" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK04">#REF!</definedName>
+    <definedName name="_WK05" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK05">#REF!</definedName>
+    <definedName name="_WK06" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK06">#REF!</definedName>
+    <definedName name="_WK07" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK07">#REF!</definedName>
+    <definedName name="_WK08" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK08">#REF!</definedName>
+    <definedName name="_WK09" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK09">#REF!</definedName>
+    <definedName name="_WK10" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK10">#REF!</definedName>
+    <definedName name="_WK11" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK11">#REF!</definedName>
+    <definedName name="_WK12" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK12">#REF!</definedName>
+    <definedName name="_WK13" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK13">#REF!</definedName>
+    <definedName name="_WK14" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK14">#REF!</definedName>
+    <definedName name="_WK15" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK15">#REF!</definedName>
+    <definedName name="_WK16" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK16">#REF!</definedName>
+    <definedName name="_WK17" localSheetId="2">#REF!</definedName>
+    <definedName name="_WK17">#REF!</definedName>
+    <definedName name="a" localSheetId="2">#REF!</definedName>
+    <definedName name="a">#REF!</definedName>
+    <definedName name="a_columnsRef">[2]!a_columnsRef</definedName>
+    <definedName name="aaa">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="aaaaa">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="b" localSheetId="2">#REF!</definedName>
+    <definedName name="b">#REF!</definedName>
+    <definedName name="bbb">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="ccc">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="CTLGP">[1]日付ﾃｰﾌﾞﾙ!$B$27</definedName>
+    <definedName name="D" localSheetId="2">#REF!</definedName>
+    <definedName name="D">#REF!</definedName>
+    <definedName name="ｄｄ" localSheetId="2">#REF!</definedName>
+    <definedName name="ｄｄ">#REF!</definedName>
+    <definedName name="e">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="Endmsg2" localSheetId="2">[3]!Endmsg2</definedName>
+    <definedName name="Endmsg2">[3]!Endmsg2</definedName>
+    <definedName name="f" localSheetId="2">'[4]tg067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
+    <definedName name="f">'[4]tg067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
+    <definedName name="g">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="ｇ" localSheetId="2">'[5]#ref'!#REF!</definedName>
+    <definedName name="ｇ">'[5]#ref'!#REF!</definedName>
+    <definedName name="ＨＤ行">[6]２!$C$1:$AP$5</definedName>
+    <definedName name="HHH" localSheetId="2">#REF!</definedName>
+    <definedName name="HHH">#REF!</definedName>
+    <definedName name="hoge" localSheetId="2">[3]!Endmsg2</definedName>
+    <definedName name="hoge">[3]!Endmsg2</definedName>
+    <definedName name="HTML_CodePage">932</definedName>
+    <definedName name="HTML_Control">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="HTML_Description">""</definedName>
+    <definedName name="HTML_Email">""</definedName>
+    <definedName name="HTML_Header">"個人情報マスター (Kojin_Mst)"</definedName>
+    <definedName name="HTML_LastUpdate">"97/10/07"</definedName>
+    <definedName name="HTML_LineAfter">0</definedName>
+    <definedName name="HTML_LineBefore">0</definedName>
+    <definedName name="HTML_Name">"竹重"</definedName>
+    <definedName name="HTML_OBDlg2">1</definedName>
+    <definedName name="HTML_OBDlg4">1</definedName>
+    <definedName name="HTML_OS">0</definedName>
+    <definedName name="HTML_PathFile">"C:\html_f\Kojin_Mst.htm"</definedName>
+    <definedName name="HTML_Title">"個人情報マスター"</definedName>
+    <definedName name="HTML1_1">"'[MILLE999.xls]価格表（社外出力） (2)'!$A$1:$E$225"</definedName>
+    <definedName name="HTML1_10">""</definedName>
+    <definedName name="HTML1_11">1</definedName>
+    <definedName name="HTML1_12">"J:\Ｎ技２\IWASHITA\MyHTML.htm"</definedName>
+    <definedName name="HTML1_13">#N/A</definedName>
+    <definedName name="HTML1_14">#N/A</definedName>
+    <definedName name="HTML1_15">#N/A</definedName>
+    <definedName name="HTML1_2">1</definedName>
+    <definedName name="HTML1_3">"MILLE999.xls"</definedName>
+    <definedName name="HTML1_4">"価格表（社外出力） (2)"</definedName>
+    <definedName name="HTML1_5">""</definedName>
+    <definedName name="HTML1_6">-4146</definedName>
+    <definedName name="HTML1_7">-4146</definedName>
+    <definedName name="HTML1_8">"98/03/13"</definedName>
+    <definedName name="HTML1_9">"日立西部ソフトウェア(株)"</definedName>
+    <definedName name="HTMLCount">1</definedName>
+    <definedName name="IO">[7]Config!$D$2:$D$4</definedName>
+    <definedName name="Kassei" localSheetId="2">#REF!</definedName>
+    <definedName name="Kassei">#REF!</definedName>
+    <definedName name="mau">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AL$403</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Run-demo'!$A$1:$AL$117</definedName>
+    <definedName name="Ｑ" localSheetId="2">[8]gbnd565!#REF!</definedName>
+    <definedName name="Ｑ">[8]gbnd565!#REF!</definedName>
+    <definedName name="ＱＱＱＱＱ" localSheetId="2">#REF!</definedName>
+    <definedName name="ＱＱＱＱＱ">#REF!</definedName>
+    <definedName name="range_Alignment" localSheetId="2">#REF!</definedName>
+    <definedName name="range_Alignment">#REF!</definedName>
+    <definedName name="range_ControlName">'[9]Config List'!$A$2:$A$35</definedName>
+    <definedName name="range_IO" localSheetId="2">#REF!</definedName>
+    <definedName name="range_IO">#REF!</definedName>
+    <definedName name="range_IOFull" localSheetId="2">#REF!</definedName>
+    <definedName name="range_IOFull">#REF!</definedName>
+    <definedName name="range_Property" localSheetId="2">#REF!</definedName>
+    <definedName name="range_Property">#REF!</definedName>
+    <definedName name="range_YN" localSheetId="2">#REF!</definedName>
+    <definedName name="range_YN">#REF!</definedName>
+    <definedName name="S31旧バッチＰＧＭ" localSheetId="2">#REF!</definedName>
+    <definedName name="S31旧バッチＰＧＭ">#REF!</definedName>
+    <definedName name="SHEET3" localSheetId="2">#REF!</definedName>
+    <definedName name="SHEET3">#REF!</definedName>
+    <definedName name="ｓｓ">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="sss" localSheetId="2">#REF!</definedName>
+    <definedName name="sss">#REF!</definedName>
+    <definedName name="TODAY" localSheetId="2">#REF!</definedName>
+    <definedName name="TODAY">#REF!</definedName>
+    <definedName name="Ｗ" localSheetId="2">'[10]tg067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
+    <definedName name="Ｗ">'[10]tg067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
+    <definedName name="wrn.まとめ.">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="あ" localSheetId="2">#REF!</definedName>
+    <definedName name="あ">#REF!</definedName>
+    <definedName name="ああ">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="ああｑ">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="あああ">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="あああああ" localSheetId="2">#REF!</definedName>
+    <definedName name="あああああ">#REF!</definedName>
+    <definedName name="え" localSheetId="2">'[4]tg067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
+    <definedName name="え">'[4]tg067(通貨ｺｰﾄﾞ)'!#REF!</definedName>
+    <definedName name="オートシェイプ80" localSheetId="2">#REF!</definedName>
+    <definedName name="オートシェイプ80">#REF!</definedName>
+    <definedName name="オートシェイプ81" localSheetId="2">#REF!</definedName>
+    <definedName name="オートシェイプ81">#REF!</definedName>
+    <definedName name="クラスライブラリ抽出" localSheetId="2">#REF!</definedName>
+    <definedName name="クラスライブラリ抽出">#REF!</definedName>
+    <definedName name="ｽﾃｰﾀｽ" localSheetId="2">#REF!</definedName>
+    <definedName name="ｽﾃｰﾀｽ">#REF!</definedName>
+    <definedName name="てｓｔ">{"'Sheet1'!$A$5:$J$32","'Sheet1'!$A$37:$J$64","'Sheet1'!$A$69:$J$96"}</definedName>
+    <definedName name="ﾃﾞｰﾀ辞書_参照用" localSheetId="2">#REF!</definedName>
+    <definedName name="ﾃﾞｰﾀ辞書_参照用">#REF!</definedName>
+    <definedName name="テストケースを" localSheetId="2">[8]gbnd565!#REF!</definedName>
+    <definedName name="テストケースを">[8]gbnd565!#REF!</definedName>
+    <definedName name="ボタン制御マトリクス" localSheetId="2">#REF!</definedName>
+    <definedName name="ボタン制御マトリクス">#REF!</definedName>
+    <definedName name="まとめ">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度基準値" localSheetId="2">#REF!</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度基準値">#REF!</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度目標値" localSheetId="2">#REF!</definedName>
+    <definedName name="ﾚﾋﾞｭｰ密度目標値">#REF!</definedName>
+    <definedName name="中長期" localSheetId="2">#REF!</definedName>
+    <definedName name="中長期">#REF!</definedName>
+    <definedName name="前提条件">"テキスト 1"</definedName>
+    <definedName name="属性">[7]Config!$C$2:$C$7</definedName>
+    <definedName name="帳票" localSheetId="2">#REF!</definedName>
+    <definedName name="帳票">#REF!</definedName>
+    <definedName name="必須">[7]Config!$B$2</definedName>
+    <definedName name="指摘率基準値" localSheetId="2">#REF!</definedName>
+    <definedName name="指摘率基準値">#REF!</definedName>
+    <definedName name="指摘率目標値" localSheetId="2">#REF!</definedName>
+    <definedName name="指摘率目標値">#REF!</definedName>
+    <definedName name="改廃履歴" localSheetId="2">#REF!</definedName>
+    <definedName name="改廃履歴">#REF!</definedName>
+    <definedName name="改廃履歴１" localSheetId="2">#REF!</definedName>
+    <definedName name="改廃履歴１">#REF!</definedName>
+    <definedName name="最大ﾚﾋﾞｭｰ密度" localSheetId="2">#REF!</definedName>
+    <definedName name="最大ﾚﾋﾞｭｰ密度">#REF!</definedName>
+    <definedName name="最大指摘率" localSheetId="2">#REF!</definedName>
+    <definedName name="最大指摘率">#REF!</definedName>
+    <definedName name="横位置">[7]Config!$E$2:$E$4</definedName>
+    <definedName name="状態遷移表" localSheetId="2">#REF!</definedName>
+    <definedName name="状態遷移表">#REF!</definedName>
+    <definedName name="関連表" localSheetId="2">#REF!</definedName>
+    <definedName name="関連表">#REF!</definedName>
+    <definedName name="項目名">[7]Config!$A$2:$A$18</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -648,205 +640,244 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">1. Flow xử lý</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1. Ở phía JNA(JAVA), serialize class truyền như là đối số đến .NET thành JSON string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2. Từ JNA(JAVA), chỉ định JSON string đã serialize thành đối số ở 1), và call .NET method thông qua C++CLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3. Ở phía .NET method đã được gọi, deserialize JSON string đã được truyền bằng đối số và trả về class object.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Cách làm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1. Tạo C++/CLI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>1. Flow xử lý</t>
+  </si>
+  <si>
+    <t>1.1. Ở phía JNA(JAVA), serialize class truyền như là đối số đến .NET thành JSON string</t>
+  </si>
+  <si>
+    <t>1.2. Từ JNA(JAVA), chỉ định JSON string đã serialize thành đối số ở 1), và call .NET method thông qua C++CLI</t>
+  </si>
+  <si>
+    <t>1.3. Ở phía .NET method đã được gọi, deserialize JSON string đã được truyền bằng đối số và trả về class object.</t>
+  </si>
+  <si>
+    <t>2. Cách làm</t>
+  </si>
+  <si>
+    <t>2.1. Tạo C++/CLI</t>
   </si>
   <si>
     <t xml:space="preserve"> -  Cần tạo thêm code trong project .NET</t>
   </si>
   <si>
-    <t xml:space="preserve">*Tham khảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.red-gate.com/simple-talk/development/dotnet-development/creating-ccli-wrapper/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2. Call .NET method thông qua C++/CLI :</t>
+    <t>*Tham khảo</t>
+  </si>
+  <si>
+    <t>https://www.red-gate.com/simple-talk/development/dotnet-development/creating-ccli-wrapper/</t>
+  </si>
+  <si>
+    <t>2.2. Call .NET method thông qua C++/CLI :</t>
   </si>
   <si>
     <t xml:space="preserve">* Tham Khảo </t>
   </si>
   <si>
-    <t xml:space="preserve">https://itqna.net/questions/19974/how-use-dll-java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Các vấn đề có thể gặp phải.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mỗi một class trong .Net muốn được gọi đến sẽ phải viết thêm 1 file wrapper tương ứng giống [2.1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I. Cài đặt môi trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Install Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Install curl :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+  apt Install curl -y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Install sourcelist for node 16:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+  curl -sL https://deb.nodesource.com/setup_16.x | sudo bash -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Install nodejs v16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+  apt-get install nodejs -y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Install golang v1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : snap install --classic --channel=1.19/stable go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Install Yarn</t>
+    <t>https://itqna.net/questions/19974/how-use-dll-java</t>
+  </si>
+  <si>
+    <t>3. Các vấn đề có thể gặp phải.</t>
+  </si>
+  <si>
+    <t>Mỗi một class trong .Net muốn được gọi đến sẽ phải viết thêm 1 file wrapper tương ứng giống [2.1]</t>
+  </si>
+  <si>
+    <t>I. Cài đặt môi trường</t>
+  </si>
+  <si>
+    <t>1. Install Node</t>
+  </si>
+  <si>
+    <t>- Install curl :</t>
+  </si>
+  <si>
+    <t>+  apt Install curl -y</t>
+  </si>
+  <si>
+    <t>- Install sourcelist for node 16:</t>
+  </si>
+  <si>
+    <t>+  curl -sL https://deb.nodesource.com/setup_16.x | sudo bash -</t>
+  </si>
+  <si>
+    <t>- Install nodejs v16</t>
+  </si>
+  <si>
+    <t>+  apt-get install nodejs -y</t>
+  </si>
+  <si>
+    <t>2. Install golang v1.19</t>
+  </si>
+  <si>
+    <t>Command : snap install --classic --channel=1.19/stable go</t>
+  </si>
+  <si>
+    <t>3. Install Yarn</t>
   </si>
   <si>
     <t xml:space="preserve">- Import the GPG key : </t>
   </si>
   <si>
-    <t xml:space="preserve">+  curl -sL https://dl.yarnpkg.com/debian/pubkey.gpg | sudo apt-key add -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Add and Enable official Yarn repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ echo "deb https://dl.yarnpkg.com/debian/ stable main" |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ sudo tee /etc/apt/sources.list.d/yarn.list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Update system cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ apt update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Install Yarn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ apt install yarn -y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Install python3-pip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : apt install python3-pip -y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Install git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : apt install git -y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Reboot computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II. Run source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clone source from github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: git clone https://github.com/thangtran97/reactjs-typescript-reduxtoolkit.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Update permissions of .sh file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open terminal inner folder source code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : chmod 755 ./scripts/*.sh setup.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Run setup.sh file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command : ./setup.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Run all shell file in folder : /scripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command: ./scripts/fe-exec.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./scripts/go-exec.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./scripts/python-exec.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I. Open in browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open browser with link : localhost:3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">II. Open view stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on "Multiview Stream" in nav-left menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Select stream mode (1 stream, 4 stream, 9 stream,…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Click on "+" button in center of the screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Select live you want to view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">III. Open view record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on "MultiviewRecord" in nav-left menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Select sub-frame in playback frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Move the mouse to the bottom of the playback frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Click on play button in center of the screen</t>
+    <t>+  curl -sL https://dl.yarnpkg.com/debian/pubkey.gpg | sudo apt-key add -</t>
+  </si>
+  <si>
+    <t>- Add and Enable official Yarn repository</t>
+  </si>
+  <si>
+    <t>+ echo "deb https://dl.yarnpkg.com/debian/ stable main" |</t>
+  </si>
+  <si>
+    <t>+ sudo tee /etc/apt/sources.list.d/yarn.list</t>
+  </si>
+  <si>
+    <t>- Update system cache</t>
+  </si>
+  <si>
+    <t>+ apt update</t>
+  </si>
+  <si>
+    <t>- Install Yarn</t>
+  </si>
+  <si>
+    <t>+ apt install yarn -y</t>
+  </si>
+  <si>
+    <t>4. Install python3-pip</t>
+  </si>
+  <si>
+    <t>Command : apt install python3-pip -y</t>
+  </si>
+  <si>
+    <t>5. Install git</t>
+  </si>
+  <si>
+    <t>Command : apt install git -y</t>
+  </si>
+  <si>
+    <t>6. Reboot computer</t>
+  </si>
+  <si>
+    <t>II. Run source</t>
+  </si>
+  <si>
+    <t>1. Clone source from github</t>
+  </si>
+  <si>
+    <t>Command: git clone https://github.com/thangtran97/reactjs-typescript-reduxtoolkit.git</t>
+  </si>
+  <si>
+    <t>Open terminal inner folder source code</t>
+  </si>
+  <si>
+    <t>Command : ./setup.sh</t>
+  </si>
+  <si>
+    <t>I. Open in browser</t>
+  </si>
+  <si>
+    <t>1. Open browser with link : localhost:3000</t>
+  </si>
+  <si>
+    <t>II. Open view stream</t>
+  </si>
+  <si>
+    <t>1. Click on "Multiview Stream" in nav-left menu</t>
+  </si>
+  <si>
+    <t>2. Select stream mode (1 stream, 4 stream, 9 stream,…)</t>
+  </si>
+  <si>
+    <t>3. Click on "+" button in center of the screen</t>
+  </si>
+  <si>
+    <t>4. Select live you want to view</t>
+  </si>
+  <si>
+    <t>III. Open view record</t>
+  </si>
+  <si>
+    <t>1. Click on "MultiviewRecord" in nav-left menu</t>
+  </si>
+  <si>
+    <t>2. Select sub-frame in playback frame</t>
+  </si>
+  <si>
+    <t>3. Move the mouse to the bottom of the playback frame</t>
+  </si>
+  <si>
+    <t>4. Click on play button in center of the screen</t>
+  </si>
+  <si>
+    <t>+ cd reactjs-typescript-reduxtoolkit</t>
+  </si>
+  <si>
+    <t>2. Copy service file</t>
+  </si>
+  <si>
+    <t>Command: cp -a ./services/. /lib/systemd/system/</t>
+  </si>
+  <si>
+    <t>3. Copy shell scripts file</t>
+  </si>
+  <si>
+    <t>Command: cp -a ./scripts/. /usr/bin/</t>
+  </si>
+  <si>
+    <t>4. Update permissions of .sh file</t>
+  </si>
+  <si>
+    <t>Command : chmod 755 ./usr/bin/*-exec.sh setup.sh</t>
+  </si>
+  <si>
+    <t>5. Run setup.sh file</t>
+  </si>
+  <si>
+    <t>6. Set Path variable</t>
+  </si>
+  <si>
+    <t>7. Reboot computer</t>
+  </si>
+  <si>
+    <t>8. Reload daemon</t>
+  </si>
+  <si>
+    <t>Command: systemctl daemon-reload</t>
+  </si>
+  <si>
+    <t>9. Enable service</t>
+  </si>
+  <si>
+    <t>+ systemctl enable be-go.service</t>
+  </si>
+  <si>
+    <t>+ systemctl enable be-python.service</t>
+  </si>
+  <si>
+    <t>+ systemctl enable fe-reactjs.service</t>
+  </si>
+  <si>
+    <t>10. Start service</t>
+  </si>
+  <si>
+    <t>+ systemctl start be-go.service</t>
+  </si>
+  <si>
+    <t>+ systemctl start be-python.service</t>
+  </si>
+  <si>
+    <t>+ systemctl start fe-reactjs.service</t>
+  </si>
+  <si>
+    <t>Command : sh -c 'NVRPATH="$(cd "$(dirname -- "$1")" &gt;/dev/null; pwd -P)/$(basename -- "$1")" &gt;&gt; /etc/environment'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -855,28 +886,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -892,6 +908,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -919,7 +942,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -927,79 +950,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 11" xfId="20"/>
-    <cellStyle name="標準 2 2 2" xfId="21"/>
+    <cellStyle name="Normal 11" xfId="1"/>
+    <cellStyle name="標準 2 2 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1058,13 +1032,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1080,11 +1070,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 12" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 12"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1117,11 +1107,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 41" descr=""/>
+        <xdr:cNvPr id="3" name="Picture 41"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1154,11 +1144,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 17" descr=""/>
+        <xdr:cNvPr id="4" name="Picture 17"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1191,11 +1181,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 18" descr=""/>
+        <xdr:cNvPr id="5" name="Picture 18"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1228,11 +1218,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 19" descr=""/>
+        <xdr:cNvPr id="6" name="Picture 19"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1265,11 +1255,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 42" descr=""/>
+        <xdr:cNvPr id="7" name="Picture 42"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1302,11 +1292,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 46" descr=""/>
+        <xdr:cNvPr id="8" name="Picture 46"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1339,11 +1329,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 47" descr=""/>
+        <xdr:cNvPr id="9" name="Picture 47"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1376,11 +1366,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 48" descr=""/>
+        <xdr:cNvPr id="10" name="Picture 48"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1402,35 +1392,36 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>65981</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 61" descr=""/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203040" y="45514440"/>
-          <a:ext cx="7371360" cy="3761640"/>
+          <a:off x="152400" y="13525500"/>
+          <a:ext cx="5552381" cy="3761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1439,35 +1430,36 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>56457</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 62" descr=""/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203040" y="49895640"/>
-          <a:ext cx="7526880" cy="3809160"/>
+          <a:off x="152400" y="53911500"/>
+          <a:ext cx="5542857" cy="3761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1476,35 +1468,36 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
-      <xdr:row>309</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>8819</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 1" descr=""/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203040" y="54848880"/>
-          <a:ext cx="7352280" cy="4009320"/>
+          <a:off x="152400" y="58102500"/>
+          <a:ext cx="5647619" cy="3809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1513,35 +1506,36 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
-      <xdr:row>331</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:colOff>75505</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 2" descr=""/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203040" y="59039640"/>
-          <a:ext cx="7371360" cy="4028400"/>
+          <a:off x="152400" y="62293500"/>
+          <a:ext cx="5561905" cy="3742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1550,35 +1544,150 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>56160</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:colOff>65981</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>132881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 3" descr=""/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203040" y="63230760"/>
-          <a:ext cx="7371360" cy="4066200"/>
+          <a:off x="152400" y="67056000"/>
+          <a:ext cx="5552381" cy="3752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>65981</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="71818500"/>
+          <a:ext cx="5552381" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>37409</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>113833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="45339000"/>
+          <a:ext cx="5523809" cy="3733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>85029</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="49530000"/>
+          <a:ext cx="5571429" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1587,7 +1696,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1603,11 +1712,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 19" descr=""/>
+        <xdr:cNvPr id="14" name="Picture 19"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1638,7 +1747,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1654,7 +1763,7 @@
         <a:noFill/>
         <a:ln w="19080">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1688,7 +1797,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1704,7 +1813,7 @@
         <a:noFill/>
         <a:ln w="19080">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1738,7 +1847,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1754,7 +1863,7 @@
         <a:noFill/>
         <a:ln w="19080">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1790,11 +1899,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 23" descr=""/>
+        <xdr:cNvPr id="18" name="Picture 23"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1825,7 +1934,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1841,7 +1950,7 @@
         <a:noFill/>
         <a:ln w="19080">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1877,11 +1986,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 27" descr=""/>
+        <xdr:cNvPr id="20" name="Picture 27"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1914,11 +2023,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 34" descr=""/>
+        <xdr:cNvPr id="21" name="Picture 34"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1949,7 +2058,7 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -1965,7 +2074,7 @@
         <a:noFill/>
         <a:ln w="19080">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1999,7 +2108,7 @@
       <xdr:row>81</xdr:row>
       <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -2015,7 +2124,7 @@
         <a:noFill/>
         <a:ln w="19080">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2049,7 +2158,7 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
@@ -2065,7 +2174,7 @@
         <a:noFill/>
         <a:ln w="19080">
           <a:solidFill>
-            <a:srgbClr val="ff0000"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2090,7 +2199,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="日付ﾃｰﾌﾞﾙ"/>
@@ -2382,188 +2491,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="メッセージ"/>
-      <sheetName val="リスト定義"/>
-      <sheetName val="項目参照定義"/>
-      <sheetName val="疎通要件マスタold"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="要員計画(山積)"/>
-      <sheetName val="WBS"/>
-      <sheetName val="採算管理"/>
-      <sheetName val="WBS素材"/>
-      <sheetName val="マスターデータ"/>
-      <sheetName val="実績一覧"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="1.機能概要"/>
-      <sheetName val="2.インターフェース定義"/>
-      <sheetName val="3.処理記述"/>
-      <sheetName val="4.移送項目定義"/>
-      <sheetName val="5.エラーチェック"/>
-      <sheetName val="Config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="見通し方針書"/>
-      <sheetName val="管理可能費"/>
-      <sheetName val="固定資産"/>
-      <sheetName val="外注費"/>
-      <sheetName val="営業費管理費"/>
-      <sheetName val="営繕費・公課"/>
-      <sheetName val="(販売計画）ｻｰﾋﾞｽ受託契約"/>
-      <sheetName val="（販売計画）保守料売上見積（保守移管製品用）"/>
-      <sheetName val="（販売計画）商品販売"/>
-      <sheetName val="社内売内訳"/>
-      <sheetName val="部署リスト"/>
-      <sheetName val="科目リスト"/>
-      <sheetName val="１０ 概算見積 要員計画"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="目次"/>
-      <sheetName val="１　データフロー"/>
-      <sheetName val="Excel取込イメージ"/>
-      <sheetName val="訴訟基本画面"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="状態遷移表"/>
-      <sheetName val="状態遷移一覧"/>
-      <sheetName val="画面項目属性一覧"/>
-      <sheetName val="状態遷移画面項目属性一覧"/>
-      <sheetName val="1"/>
-      <sheetName val="2"/>
-      <sheetName val="3"/>
-      <sheetName val="4"/>
-      <sheetName val="5"/>
-      <sheetName val="6"/>
-      <sheetName val="7"/>
-      <sheetName val="8"/>
-      <sheetName val="9"/>
-      <sheetName val="10"/>
-      <sheetName val="11"/>
-      <sheetName val="12"/>
-      <sheetName val="13"/>
-      <sheetName val="14"/>
-      <sheetName val="15"/>
-      <sheetName val="template"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="２"/>
@@ -2740,6 +2669,7 @@
       <sheetName val="マスタ情報"/>
       <sheetName val="システム設定"/>
       <sheetName val="部署"/>
+      <sheetName val="tg067(通貨ｺｰﾄﾞ)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2916,13 +2846,14 @@
       <sheetData sheetId="171"/>
       <sheetData sheetId="172"/>
       <sheetData sheetId="173"/>
+      <sheetData sheetId="174" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙"/>
@@ -2936,6 +2867,166 @@
       <sheetName val="7.移送項目定義"/>
       <sheetName val="8.エラーチェック"/>
       <sheetName val="動作確認"/>
+      <sheetName val="Config"/>
+      <sheetName val="copy_基本設計書_SCRF033_アーカイブ先一覧画面_V"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="a_columnsRef"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="変更履歴"/>
+      <sheetName val="1.機能概要"/>
+      <sheetName val="2.画面遷移図"/>
+      <sheetName val="3.アクション一覧"/>
+      <sheetName val="4.処理記述"/>
+      <sheetName val="5.画面レイアウト"/>
+      <sheetName val="6.画面項目定義"/>
+      <sheetName val="7.移送項目定義"/>
+      <sheetName val="8.エラーチェック"/>
+      <sheetName val="QA"/>
+      <sheetName val="Helper"/>
+      <sheetName val="Config List"/>
+      <sheetName val="基本設計書_SCRF015_プロセス編集画面_岩並"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="Endmsg2"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="メッセージ"/>
+      <sheetName val="リスト定義"/>
+      <sheetName val="項目参照定義"/>
+      <sheetName val="疎通要件マスタold"/>
+      <sheetName val="tg067(通貨ｺｰﾄﾞ)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="要員計画(山積)"/>
+      <sheetName val="WBS"/>
+      <sheetName val="採算管理"/>
+      <sheetName val="WBS素材"/>
+      <sheetName val="マスターデータ"/>
+      <sheetName val="実績一覧"/>
+      <sheetName val="#ref"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="変更履歴"/>
+      <sheetName val="1.機能概要"/>
+      <sheetName val="2.インターフェース定義"/>
+      <sheetName val="3.処理記述"/>
+      <sheetName val="4.移送項目定義"/>
+      <sheetName val="5.エラーチェック"/>
+      <sheetName val="Config"/>
+      <sheetName val="２"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="見通し方針書"/>
+      <sheetName val="管理可能費"/>
+      <sheetName val="固定資産"/>
+      <sheetName val="外注費"/>
+      <sheetName val="営業費管理費"/>
+      <sheetName val="営繕費・公課"/>
+      <sheetName val="(販売計画）ｻｰﾋﾞｽ受託契約"/>
+      <sheetName val="（販売計画）保守料売上見積（保守移管製品用）"/>
+      <sheetName val="（販売計画）商品販売"/>
+      <sheetName val="社内売内訳"/>
+      <sheetName val="部署リスト"/>
+      <sheetName val="科目リスト"/>
+      <sheetName val="１０ 概算見積 要員計画"/>
       <sheetName val="Config"/>
     </sheetNames>
     <sheetDataSet>
@@ -2951,27 +3042,61 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="目次"/>
+      <sheetName val="１　データフロー"/>
+      <sheetName val="Excel取込イメージ"/>
+      <sheetName val="訴訟基本画面"/>
+      <sheetName val="gbnd565"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="1.機能概要"/>
-      <sheetName val="2.画面遷移図"/>
-      <sheetName val="3.アクション一覧"/>
-      <sheetName val="4.処理記述"/>
-      <sheetName val="5.画面レイアウト"/>
-      <sheetName val="6.画面項目定義"/>
-      <sheetName val="7.移送項目定義"/>
-      <sheetName val="8.エラーチェック"/>
-      <sheetName val="QA"/>
-      <sheetName val="Helper"/>
+      <sheetName val="状態遷移表"/>
+      <sheetName val="状態遷移一覧"/>
+      <sheetName val="画面項目属性一覧"/>
+      <sheetName val="状態遷移画面項目属性一覧"/>
+      <sheetName val="1"/>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="4"/>
+      <sheetName val="5"/>
+      <sheetName val="6"/>
+      <sheetName val="7"/>
+      <sheetName val="8"/>
+      <sheetName val="9"/>
+      <sheetName val="10"/>
+      <sheetName val="11"/>
+      <sheetName val="12"/>
+      <sheetName val="13"/>
+      <sheetName val="14"/>
+      <sheetName val="15"/>
+      <sheetName val="template"/>
       <sheetName val="Config List"/>
     </sheetNames>
     <sheetDataSet>
@@ -2988,764 +3113,1012 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AMJ24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="2.71"/>
+    <col min="1" max="1024" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="91" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="91" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D402"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N83" activeCellId="0" sqref="N83"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ397" sqref="AQ397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C95" s="6"/>
       <c r="D95" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D118" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D119" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D142" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D164" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="0" t="s">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="0" t="s">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="0" t="s">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="0" t="s">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="0" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="233" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="0" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="0" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="0" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="0" t="s">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C400" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C401" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C402" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A68" colorId="64" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q88" activeCellId="0" sqref="Q88"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A68" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="Q88" sqref="Q88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CLI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -546,8 +546,8 @@
     <definedName name="Kassei" localSheetId="2">#REF!</definedName>
     <definedName name="Kassei">#REF!</definedName>
     <definedName name="mau">{#N/A,#N/A,TRUE,"ﾒｲﾝｻｰﾊﾞ";#N/A,#N/A,TRUE,"ｽﾀﾝﾊﾞｲｻｰﾊﾞ";#N/A,#N/A,TRUE,"ﾒﾝﾃﾅﾝｽ&amp;SMS";#N/A,#N/A,TRUE,"ﾁｰﾌ端末(NT)";#N/A,#N/A,TRUE,"監視端末(NT)";#N/A,#N/A,TRUE,"予備端末";#N/A,#N/A,TRUE,"ﾈｯﾄﾜｰｸ機器";#N/A,#N/A,TRUE,"受信用PC98";#N/A,#N/A,TRUE,"とりまとめ"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AL$403</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Run-demo'!$A$1:$AL$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Deploy-service-xubuntu'!$A$1:$AL$375</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Run-demo'!$A$1:$AL$78</definedName>
     <definedName name="Ｑ" localSheetId="2">[8]gbnd565!#REF!</definedName>
     <definedName name="Ｑ">[8]gbnd565!#REF!</definedName>
     <definedName name="ＱＱＱＱＱ" localSheetId="2">#REF!</definedName>
@@ -640,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>1. Flow xử lý</t>
   </si>
@@ -756,9 +756,6 @@
     <t>Command : apt install git -y</t>
   </si>
   <si>
-    <t>6. Reboot computer</t>
-  </si>
-  <si>
     <t>II. Run source</t>
   </si>
   <si>
@@ -768,18 +765,9 @@
     <t>Command: git clone https://github.com/thangtran97/reactjs-typescript-reduxtoolkit.git</t>
   </si>
   <si>
-    <t>Open terminal inner folder source code</t>
-  </si>
-  <si>
-    <t>Command : ./setup.sh</t>
-  </si>
-  <si>
     <t>I. Open in browser</t>
   </si>
   <si>
-    <t>1. Open browser with link : localhost:3000</t>
-  </si>
-  <si>
     <t>II. Open view stream</t>
   </si>
   <si>
@@ -813,64 +801,46 @@
     <t>+ cd reactjs-typescript-reduxtoolkit</t>
   </si>
   <si>
-    <t>2. Copy service file</t>
-  </si>
-  <si>
-    <t>Command: cp -a ./services/. /lib/systemd/system/</t>
-  </si>
-  <si>
-    <t>3. Copy shell scripts file</t>
-  </si>
-  <si>
-    <t>Command: cp -a ./scripts/. /usr/bin/</t>
-  </si>
-  <si>
-    <t>4. Update permissions of .sh file</t>
-  </si>
-  <si>
-    <t>Command : chmod 755 ./usr/bin/*-exec.sh setup.sh</t>
-  </si>
-  <si>
-    <t>5. Run setup.sh file</t>
-  </si>
-  <si>
-    <t>6. Set Path variable</t>
-  </si>
-  <si>
-    <t>7. Reboot computer</t>
-  </si>
-  <si>
-    <t>8. Reload daemon</t>
-  </si>
-  <si>
     <t>Command: systemctl daemon-reload</t>
   </si>
   <si>
-    <t>9. Enable service</t>
-  </si>
-  <si>
-    <t>+ systemctl enable be-go.service</t>
-  </si>
-  <si>
-    <t>+ systemctl enable be-python.service</t>
-  </si>
-  <si>
-    <t>+ systemctl enable fe-reactjs.service</t>
-  </si>
-  <si>
-    <t>10. Start service</t>
-  </si>
-  <si>
-    <t>+ systemctl start be-go.service</t>
-  </si>
-  <si>
-    <t>+ systemctl start be-python.service</t>
-  </si>
-  <si>
-    <t>+ systemctl start fe-reactjs.service</t>
-  </si>
-  <si>
-    <t>Command : sh -c 'NVRPATH="$(cd "$(dirname -- "$1")" &gt;/dev/null; pwd -P)/$(basename -- "$1")" &gt;&gt; /etc/environment'</t>
+    <t>6. Install Nginx</t>
+  </si>
+  <si>
+    <t>Command : apt install nginx -y</t>
+  </si>
+  <si>
+    <t>2. Update permissions of .sh file</t>
+  </si>
+  <si>
+    <t>Command : chmod 755 setup.sh</t>
+  </si>
+  <si>
+    <t>Command : sudo ./setup.sh</t>
+  </si>
+  <si>
+    <t>3. Run setup.sh file as super user do</t>
+  </si>
+  <si>
+    <t>4. Reload daemon</t>
+  </si>
+  <si>
+    <t>5. Start service</t>
+  </si>
+  <si>
+    <t>+ service be-go start</t>
+  </si>
+  <si>
+    <t>+ service be-python start</t>
+  </si>
+  <si>
+    <t>6. Restart nginx</t>
+  </si>
+  <si>
+    <t>Command : sudo systemctl restart nginx</t>
+  </si>
+  <si>
+    <t>1. Open browser with link : localhost</t>
   </si>
 </sst>
 </file>
@@ -1430,18 +1400,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>56457</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:colOff>75505</xdr:colOff>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>142405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1454,8 +1424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="53911500"/>
-          <a:ext cx="5542857" cy="3761905"/>
+          <a:off x="152400" y="44386500"/>
+          <a:ext cx="5561905" cy="3761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,18 +1438,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>8819</xdr:colOff>
-      <xdr:row>324</xdr:row>
-      <xdr:rowOff>190024</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46933</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="14" name="Picture 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1492,8 +1462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="58102500"/>
-          <a:ext cx="5647619" cy="3809524"/>
+          <a:off x="152400" y="49720500"/>
+          <a:ext cx="5533333" cy="3742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1506,18 +1476,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>75505</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:colOff>65981</xdr:colOff>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>123357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1530,83 +1500,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="62293500"/>
-          <a:ext cx="5561905" cy="3742857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>352</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>65981</xdr:colOff>
-      <xdr:row>371</xdr:row>
-      <xdr:rowOff>132881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="67056000"/>
-          <a:ext cx="5552381" cy="3752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>377</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>65981</xdr:colOff>
-      <xdr:row>396</xdr:row>
-      <xdr:rowOff>123357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="71818500"/>
+          <a:off x="152400" y="53911500"/>
           <a:ext cx="5552381" cy="3742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1620,18 +1514,94 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46933</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>104309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="58293000"/>
+          <a:ext cx="5533333" cy="3723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>75505</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>142405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="63055500"/>
+          <a:ext cx="5561905" cy="3761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>37409</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>113833</xdr:rowOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>123357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="25" name="Picture 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1644,46 +1614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="45339000"/>
-          <a:ext cx="5523809" cy="3733333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85029</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>123357</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="49530000"/>
-          <a:ext cx="5571429" cy="3742857"/>
+          <a:off x="152400" y="67627500"/>
+          <a:ext cx="5523809" cy="3742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,32 +1629,277 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>118800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157747</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="153120" y="1762125"/>
+          <a:ext cx="5604480" cy="2777122"/>
+          <a:chOff x="152254" y="2112818"/>
+          <a:chExt cx="5573307" cy="2777122"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 19"/>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect t="6704"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152254" y="2112818"/>
+            <a:ext cx="5573307" cy="2777122"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="CustomShape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="180334" y="2383920"/>
+            <a:ext cx="429263" cy="124980"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="CustomShape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2726065" y="3535200"/>
+            <a:ext cx="234443" cy="190140"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="CustomShape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="825710" y="2342160"/>
+            <a:ext cx="841941" cy="135780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>12989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>118081</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124939</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152401" y="4775489"/>
+          <a:ext cx="5604480" cy="2778950"/>
+          <a:chOff x="151534" y="5338330"/>
+          <a:chExt cx="5573307" cy="2778950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="Picture 23"/>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect t="6551"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="151534" y="5338330"/>
+            <a:ext cx="5573307" cy="2778950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="CustomShape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2177277" y="5616660"/>
+            <a:ext cx="1530461" cy="2220120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>46081</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>116277</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 27"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="6843"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="203760" y="1913040"/>
-          <a:ext cx="7433280" cy="2976840"/>
+          <a:off x="151535" y="7823486"/>
+          <a:ext cx="5501307" cy="2770291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,465 +1911,161 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="231840" y="2383920"/>
-          <a:ext cx="542160" cy="124920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3632760" y="3535200"/>
-          <a:ext cx="309240" cy="190080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1083960" y="2342160"/>
-          <a:ext cx="1119240" cy="135720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3239</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:colOff>127079</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>143050</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 23"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="203040" y="5143320"/>
-          <a:ext cx="7433280" cy="2973960"/>
+          <a:off x="155639" y="12028715"/>
+          <a:ext cx="5610240" cy="2782835"/>
+          <a:chOff x="155639" y="12028715"/>
+          <a:chExt cx="5610240" cy="2782835"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Picture 34"/>
+          <xdr:cNvPicPr/>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:srcRect t="6546"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="155639" y="12028715"/>
+            <a:ext cx="5610240" cy="2782835"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="CustomShape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="203563" y="12435146"/>
+            <a:ext cx="409395" cy="100800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>70920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2900520" y="5616360"/>
-          <a:ext cx="2046960" cy="2220120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 27"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="203040" y="8381880"/>
-          <a:ext cx="7361280" cy="2973600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="CustomShape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1158283" y="13368651"/>
+            <a:ext cx="2052101" cy="1148400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 34"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="206280" y="12769920"/>
-          <a:ext cx="7439040" cy="2977560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="CustomShape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2943163" y="14380551"/>
+            <a:ext cx="109140" cy="95040"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="248760" y="13376520"/>
-          <a:ext cx="520560" cy="100800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>165600</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1508400" y="14299200"/>
-          <a:ext cx="2720880" cy="1148400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3902760" y="15311160"/>
-          <a:ext cx="147240" cy="95040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
+          <a:ln w="19080">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3482,10 +3355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D402"/>
+  <dimension ref="A2:D354"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ397" sqref="AQ397"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM353" sqref="AM353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,139 +3777,95 @@
         <v>37</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="7" t="s">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="7"/>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C238" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C282" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="7"/>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C327" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B349" t="s">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C352" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B374" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B399" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4048,72 +3877,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C66"/>
+  <dimension ref="B2:C62"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A68" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="Q88" sqref="Q88"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="AO74" sqref="AO74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/deploy-guidelines.xlsx
+++ b/deploy-guidelines.xlsx
@@ -819,9 +819,6 @@
     <t>Command : sudo ./setup.sh</t>
   </si>
   <si>
-    <t>3. Run setup.sh file as super user do</t>
-  </si>
-  <si>
     <t>4. Reload daemon</t>
   </si>
   <si>
@@ -841,13 +838,16 @@
   </si>
   <si>
     <t>1. Open browser with link : localhost</t>
+  </si>
+  <si>
+    <t>3. Run setup.sh file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -886,6 +886,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -933,9 +940,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3357,448 +3364,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D354"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM353" sqref="AM353"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO349" sqref="AO349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.28515625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="6" t="s">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="6"/>
-    </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-    </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="6"/>
-    </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="6"/>
-    </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+      <c r="B186" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+      <c r="C187" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+      <c r="B209" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
+      <c r="C210" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
+      <c r="B231" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
+      <c r="C232" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
+    <row r="255" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+      <c r="B256" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C257" t="s">
+      <c r="C257" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3811,61 +3527,61 @@
       <c r="C259" s="7"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+      <c r="B260" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C261" t="s">
+      <c r="C261" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
+      <c r="B282" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C283" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" s="5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C306" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C329" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C330" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C331" s="7"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
+      <c r="B353" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="5" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C354" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3879,69 +3595,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="AO74" sqref="AO74"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="BA11" sqref="BA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.28515625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>51</v>
       </c>
     </row>
